--- a/Livello_Po_Python2.xlsx
+++ b/Livello_Po_Python2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghesi\Documents\GitHub\climate-change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C994F776-2CA5-45EA-873D-7B16AC288CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604EF612-9C38-4781-B484-EA0B52E38A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7965" yWindow="5130" windowWidth="7500" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="690">
   <si>
     <t xml:space="preserve">CapacityFactor(r,'RIVER','S01B1','2015') = </t>
   </si>
@@ -447,6 +447,1662 @@
   </si>
   <si>
     <t xml:space="preserve">CapacityFactor(r,'RIVER','S01B3','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2015') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2016') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2017') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2018') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2019') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2020') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2021') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2022') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2023') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2024') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2025') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2026') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2027') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2028') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2029') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2030') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2031') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2032') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2033') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2034') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2035') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2036') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2037') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2038') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2039') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2040') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2041') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2042') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2043') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2044') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2045') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2046') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2047') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2048') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2049') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2050') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2051') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2052') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2053') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2054') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2055') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2056') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2057') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2058') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2059') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B1','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B2','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S02B3','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B1','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B2','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S03B3','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B1','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B2','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S04B3','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B1','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B2','2060') = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CapacityFactor(r,'RIVER','S05B3','2060') = </t>
   </si>
 </sst>
 </file>
@@ -482,8 +2138,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -825,7 +2482,7 @@
   <dimension ref="A1:J690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E1" sqref="E1:E690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,7 +2518,7 @@
       <c r="A3">
         <v>2.9180315163386261E-2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J3" t="str">
@@ -873,12 +2530,12 @@
       <c r="A4">
         <v>6.0241595233341459E-2</v>
       </c>
-      <c r="E4" t="s">
-        <v>0</v>
+      <c r="E4" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2015') = 0.0602415952333415;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2015') = 0.0602415952333415;</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -886,11 +2543,11 @@
         <v>0.16064425316321029</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2015') = 0.16064425316321;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2015') = 0.16064425316321;</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -898,11 +2555,11 @@
         <v>2.0080532536814071E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>140</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2015') = 0.0200805325368141;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2015') = 0.0200805325368141;</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,11 +2567,11 @@
         <v>3.8878140603337601E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2015') = 0.0388781406033376;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2015') = 0.0388781406033376;</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -922,11 +2579,11 @@
         <v>0.1244100495584699</v>
       </c>
       <c r="E8" t="s">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2015') = 0.12441004955847;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2015') = 0.12441004955847;</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -934,11 +2591,11 @@
         <v>2.3326884362002559E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2015') = 0.0233268843620026;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2015') = 0.0233268843620026;</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -946,11 +2603,11 @@
         <v>4.876554943937874E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2015') = 0.0487655494393787;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2015') = 0.0487655494393787;</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -958,11 +2615,11 @@
         <v>0.1219138718619175</v>
       </c>
       <c r="E11" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2015') = 0.121913871861918;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2015') = 0.121913871861918;</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -970,11 +2627,11 @@
         <v>2.438277471968937E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2015') = 0.0243827747196894;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2015') = 0.0243827747196894;</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -982,11 +2639,11 @@
         <v>3.5978456142545703E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2015') = 0.0359784561425457;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2015') = 0.0359784561425457;</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -994,11 +2651,11 @@
         <v>8.9946141669577914E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2015') = 0.0899461416695779;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2015') = 0.0899461416695779;</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1006,11 +2663,11 @@
         <v>1.7989228071272852E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>149</v>
       </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2015') = 0.0179892280712729;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2015') = 0.0179892280712729;</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1054,11 +2711,11 @@
         <v>5.2669301599603813E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>150</v>
       </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2016') = 0.0526693015996038;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2016') = 0.0526693015996038;</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1066,11 +2723,11 @@
         <v>0.14045147023950941</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2016') = 0.140451470239509;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2016') = 0.140451470239509;</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1078,11 +2735,11 @@
         <v>1.7556434559301989E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2016') = 0.017556434559302;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2016') = 0.017556434559302;</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1090,11 +2747,11 @@
         <v>3.6052928951614473E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2016') = 0.0360529289516145;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2016') = 0.0360529289516145;</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,11 +2759,11 @@
         <v>0.1153693723000038</v>
       </c>
       <c r="E23" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2016') = 0.115369372300004;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2016') = 0.115369372300004;</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1114,11 +2771,11 @@
         <v>2.1631757370968681E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2016') = 0.0216317573709687;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2016') = 0.0216317573709687;</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1126,11 +2783,11 @@
         <v>4.2795664218786521E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2016') = 0.0427956642187865;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2016') = 0.0427956642187865;</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1138,11 +2795,11 @@
         <v>0.10698915902302319</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2016') = 0.106989159023023;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2016') = 0.106989159023023;</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1150,11 +2807,11 @@
         <v>2.139783210939326E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>158</v>
       </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2016') = 0.0213978321093933;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2016') = 0.0213978321093933;</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,11 +2819,11 @@
         <v>4.8678253567764673E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2016') = 0.0486782535677647;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2016') = 0.0486782535677647;</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1174,11 +2831,11 @@
         <v>0.12169563569616799</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2016') = 0.121695635696168;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2016') = 0.121695635696168;</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1186,11 +2843,11 @@
         <v>2.433912678388234E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>161</v>
       </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2016') = 0.0243391267838823;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2016') = 0.0243391267838823;</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1234,11 +2891,11 @@
         <v>4.1738371866771068E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>162</v>
       </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2017') = 0.0417383718667711;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2017') = 0.0417383718667711;</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1246,11 +2903,11 @@
         <v>0.111302324429065</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2017') = 0.111302324429065;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2017') = 0.111302324429065;</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1258,11 +2915,11 @@
         <v>1.3912791171248219E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2017') = 0.0139127911712482;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2017') = 0.0139127911712482;</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1270,11 +2927,11 @@
         <v>2.998309677808372E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2017') = 0.0299830967780837;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2017') = 0.0299830967780837;</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,11 +2939,11 @@
         <v>9.5945909402816609E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2017') = 0.0959459094028166;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2017') = 0.0959459094028166;</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1294,11 +2951,11 @@
         <v>1.7989858066850231E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2017') = 0.0179898580668502;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2017') = 0.0179898580668502;</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1306,11 +2963,11 @@
         <v>3.2446516754531557E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2017') = 0.0324465167545316;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2017') = 0.0324465167545316;</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1318,11 +2975,11 @@
         <v>8.1116290730916363E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2017') = 0.0811162907309164;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2017') = 0.0811162907309164;</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1330,11 +2987,11 @@
         <v>1.6223258377265778E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2017') = 0.0162232583772658;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2017') = 0.0162232583772658;</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,11 +2999,11 @@
         <v>3.3252775353153352E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2017') = 0.0332527753531534;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2017') = 0.0332527753531534;</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1354,11 +3011,11 @@
         <v>8.3131939596609694E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2017') = 0.0831319395966097;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2017') = 0.0831319395966097;</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1366,11 +3023,11 @@
         <v>1.662638767657668E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2017') = 0.0166263876765767;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2017') = 0.0166263876765767;</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1414,11 +3071,11 @@
         <v>5.5725562552660313E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2018') = 0.0557255625526603;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2018') = 0.0557255625526603;</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,11 +3083,11 @@
         <v>0.14860149940746059</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2018') = 0.148601499407461;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2018') = 0.148601499407461;</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -1438,11 +3095,11 @@
         <v>1.8575188250520291E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2018') = 0.0185751882505203;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2018') = 0.0185751882505203;</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -1450,11 +3107,11 @@
         <v>4.1232112290748232E-2</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2018') = 0.0412321122907482;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2018') = 0.0412321122907482;</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,11 +3119,11 @@
         <v>0.13194275893564761</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2018') = 0.131942758935648;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2018') = 0.131942758935648;</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -1474,11 +3131,11 @@
         <v>2.4739267374448939E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2018') = 0.0247392673744489;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2018') = 0.0247392673744489;</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -1486,11 +3143,11 @@
         <v>5.8147879557449919E-2</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2018') = 0.0581478795574499;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2018') = 0.0581478795574499;</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,11 +3155,11 @@
         <v>0.145369696822993</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2018') = 0.145369696822993;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2018') = 0.145369696822993;</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -1510,11 +3167,11 @@
         <v>2.907393977872496E-2</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2018') = 0.029073939778725;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2018') = 0.029073939778725;</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,11 +3179,11 @@
         <v>4.3975562629223267E-2</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>183</v>
       </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2018') = 0.0439755626292233;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2018') = 0.0439755626292233;</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,11 +3191,11 @@
         <v>0.10993890817816621</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>184</v>
       </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2018') = 0.109938908178166;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2018') = 0.109938908178166;</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -1546,11 +3203,11 @@
         <v>2.198778131461164E-2</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2018') = 0.0219877813146116;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2018') = 0.0219877813146116;</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -1594,11 +3251,11 @@
         <v>3.6045961826531157E-2</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2019') = 0.0360459618265312;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2019') = 0.0360459618265312;</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -1606,11 +3263,11 @@
         <v>9.6122564396631693E-2</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2019') = 0.0961225643966317;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2019') = 0.0961225643966317;</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -1618,11 +3275,11 @@
         <v>1.201532108296177E-2</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="J66" t="str">
         <f t="shared" ref="J66:J129" si="1">CONCATENATE(E66,A66,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B3','2019') = 0.0120153210829618;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2019') = 0.0120153210829618;</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -1630,11 +3287,11 @@
         <v>3.4160131133806733E-2</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2019') = 0.0341601311338067;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2019') = 0.0341601311338067;</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -1642,11 +3299,11 @@
         <v>0.1093124193011403</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2019') = 0.10931241930114;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2019') = 0.10931241930114;</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -1654,11 +3311,11 @@
         <v>2.0496078680284038E-2</v>
       </c>
       <c r="E69" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2019') = 0.020496078680284;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2019') = 0.020496078680284;</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -1666,11 +3323,11 @@
         <v>6.215637395743355E-2</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2019') = 0.0621563739574335;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2019') = 0.0621563739574335;</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -1678,11 +3335,11 @@
         <v>0.15539093268021059</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2019') = 0.155390932680211;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2019') = 0.155390932680211;</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -1690,11 +3347,11 @@
         <v>3.1078186978716772E-2</v>
       </c>
       <c r="E72" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2019') = 0.0310781869787168;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2019') = 0.0310781869787168;</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -1702,11 +3359,11 @@
         <v>7.5188334348171751E-2</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2019') = 0.0751883343481718;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2019') = 0.0751883343481718;</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -1714,11 +3371,11 @@
         <v>0.1879708386148036</v>
       </c>
       <c r="E74" t="s">
-        <v>13</v>
+        <v>196</v>
       </c>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2019') = 0.187970838614804;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2019') = 0.187970838614804;</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -1726,11 +3383,11 @@
         <v>3.7594167174085882E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2019') = 0.0375941671740859;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2019') = 0.0375941671740859;</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -1774,11 +3431,11 @@
         <v>4.1247879408454459E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2020') = 0.0412478794084545;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2020') = 0.0412478794084545;</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -1786,11 +3443,11 @@
         <v>0.1099943445466722</v>
       </c>
       <c r="E80" t="s">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2020') = 0.109994344546672;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2020') = 0.109994344546672;</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,11 +3455,11 @@
         <v>1.374929367869116E-2</v>
       </c>
       <c r="E81" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2020') = 0.0137492936786912;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2020') = 0.0137492936786912;</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -1810,11 +3467,11 @@
         <v>3.6840874914750667E-2</v>
       </c>
       <c r="E82" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2020') = 0.0368408749147507;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2020') = 0.0368408749147507;</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,11 +3479,11 @@
         <v>0.11789079937449599</v>
       </c>
       <c r="E83" t="s">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2020') = 0.117890799374496;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2020') = 0.117890799374496;</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -1834,11 +3491,11 @@
         <v>2.2104524948850401E-2</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2020') = 0.0221045249488504;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2020') = 0.0221045249488504;</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -1846,11 +3503,11 @@
         <v>5.3099721823003487E-2</v>
       </c>
       <c r="E85" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2020') = 0.0530997218230035;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2020') = 0.0530997218230035;</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -1858,11 +3515,11 @@
         <v>0.13274930266664059</v>
       </c>
       <c r="E86" t="s">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2020') = 0.132749302666641;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2020') = 0.132749302666641;</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -1870,11 +3527,11 @@
         <v>2.6549860911501751E-2</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>206</v>
       </c>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2020') = 0.0265498609115018;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2020') = 0.0265498609115018;</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,11 +3539,11 @@
         <v>5.2447479197338942E-2</v>
       </c>
       <c r="E88" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2020') = 0.0524474791973389;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2020') = 0.0524474791973389;</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -1894,11 +3551,11 @@
         <v>0.13111869990768041</v>
       </c>
       <c r="E89" t="s">
-        <v>16</v>
+        <v>208</v>
       </c>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2020') = 0.13111869990768;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2020') = 0.13111869990768;</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -1906,11 +3563,11 @@
         <v>2.6223739598669471E-2</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>209</v>
       </c>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2020') = 0.0262237395986695;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2020') = 0.0262237395986695;</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -1954,11 +3611,11 @@
         <v>3.762191402840219E-2</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
+        <v>210</v>
       </c>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2021') = 0.0376219140284022;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2021') = 0.0376219140284022;</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -1966,11 +3623,11 @@
         <v>0.1003251035808924</v>
       </c>
       <c r="E95" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="J95" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2021') = 0.100325103580892;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2021') = 0.100325103580892;</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -1978,11 +3635,11 @@
         <v>1.2540638504314189E-2</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="J96" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2021') = 0.0125406385043142;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2021') = 0.0125406385043142;</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -1990,11 +3647,11 @@
         <v>3.0628941241952069E-2</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="J97" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2021') = 0.0306289412419521;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2021') = 0.0306289412419521;</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,11 +3659,11 @@
         <v>9.8012611681012163E-2</v>
       </c>
       <c r="E98" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="J98" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2021') = 0.0980126116810122;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2021') = 0.0980126116810122;</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -2014,11 +3671,11 @@
         <v>1.8377364745171241E-2</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="J99" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2021') = 0.0183773647451712;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2021') = 0.0183773647451712;</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -2026,11 +3683,11 @@
         <v>4.3911651273177053E-2</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="J100" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2021') = 0.0439116512731771;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2021') = 0.0439116512731771;</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -2038,11 +3695,11 @@
         <v>0.1097791266192594</v>
       </c>
       <c r="E101" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="J101" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2021') = 0.109779126619259;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2021') = 0.109779126619259;</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -2050,11 +3707,11 @@
         <v>2.195582563658852E-2</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="J102" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2021') = 0.0219558256365885;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2021') = 0.0219558256365885;</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,11 +3719,11 @@
         <v>3.7061604420619343E-2</v>
       </c>
       <c r="E103" t="s">
-        <v>18</v>
+        <v>219</v>
       </c>
       <c r="J103" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2021') = 0.0370616044206193;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2021') = 0.0370616044206193;</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,11 +3731,11 @@
         <v>9.2654012404296937E-2</v>
       </c>
       <c r="E104" t="s">
-        <v>19</v>
+        <v>220</v>
       </c>
       <c r="J104" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2021') = 0.0926540124042969;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2021') = 0.0926540124042969;</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -2086,11 +3743,11 @@
         <v>1.8530802210309671E-2</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="J105" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2021') = 0.0185308022103097;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2021') = 0.0185308022103097;</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -2134,11 +3791,11 @@
         <v>4.4466745966560778E-2</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
+        <v>222</v>
       </c>
       <c r="J109" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2022') = 0.0444667459665608;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2022') = 0.0444667459665608;</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -2146,11 +3803,11 @@
         <v>0.11857798865928421</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="J110" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2022') = 0.118577988659284;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2022') = 0.118577988659284;</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -2158,11 +3815,11 @@
         <v>1.4822249240398169E-2</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="J111" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2022') = 0.0148222492403982;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2022') = 0.0148222492403982;</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -2170,11 +3827,11 @@
         <v>3.483302392104809E-2</v>
       </c>
       <c r="E112" t="s">
-        <v>21</v>
+        <v>225</v>
       </c>
       <c r="J112" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2022') = 0.0348330239210481;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2022') = 0.0348330239210481;</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -2182,11 +3839,11 @@
         <v>0.1114656762138705</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="J113" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2022') = 0.111465676213871;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2022') = 0.111465676213871;</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -2194,11 +3851,11 @@
         <v>2.0899814352628859E-2</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="J114" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2022') = 0.0208998143526289;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2022') = 0.0208998143526289;</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -2206,11 +3863,11 @@
         <v>4.5458150624784713E-2</v>
       </c>
       <c r="E115" t="s">
-        <v>21</v>
+        <v>228</v>
       </c>
       <c r="J115" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2022') = 0.0454581506247847;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2022') = 0.0454581506247847;</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -2218,11 +3875,11 @@
         <v>0.1136453749432081</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="J116" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2022') = 0.113645374943208;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2022') = 0.113645374943208;</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -2230,11 +3887,11 @@
         <v>2.272907531239236E-2</v>
       </c>
       <c r="E117" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
       <c r="J117" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2022') = 0.0227290753123924;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2022') = 0.0227290753123924;</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,11 +3899,11 @@
         <v>4.6861105333818383E-2</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="J118" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2022') = 0.0468611053338184;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2022') = 0.0468611053338184;</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -2254,11 +3911,11 @@
         <v>0.11715276504497631</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="J119" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2022') = 0.117152765044976;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2022') = 0.117152765044976;</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -2266,11 +3923,11 @@
         <v>2.3430552666909191E-2</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="J120" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2022') = 0.0234305526669092;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2022') = 0.0234305526669092;</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -2314,11 +3971,11 @@
         <v>4.4650558449513593E-2</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="J124" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2023') = 0.0446505584495136;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2023') = 0.0446505584495136;</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -2326,11 +3983,11 @@
         <v>0.11906815527807391</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="J125" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2023') = 0.119068155278074;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2023') = 0.119068155278074;</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,11 +3995,11 @@
         <v>1.4883520070466829E-2</v>
       </c>
       <c r="E126" t="s">
-        <v>26</v>
+        <v>236</v>
       </c>
       <c r="J126" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2023') = 0.0148835200704668;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2023') = 0.0148835200704668;</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -2350,11 +4007,11 @@
         <v>3.4148268630344661E-2</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="J127" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2023') = 0.0341482686303447;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2023') = 0.0341482686303447;</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -2362,11 +4019,11 @@
         <v>0.10927445929017519</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="J128" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2023') = 0.109274459290175;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2023') = 0.109274459290175;</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -2374,11 +4031,11 @@
         <v>2.04889611782068E-2</v>
       </c>
       <c r="E129" t="s">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="J129" t="str">
         <f t="shared" si="1"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2023') = 0.0204889611782068;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2023') = 0.0204889611782068;</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -2386,11 +4043,11 @@
         <v>4.4640686858825121E-2</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="J130" t="str">
         <f t="shared" ref="J130:J193" si="2">CONCATENATE(E130,A130,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B1','2023') = 0.0446406868588251;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2023') = 0.0446406868588251;</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -2398,11 +4055,11 @@
         <v>0.11160171555741891</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>241</v>
       </c>
       <c r="J131" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2023') = 0.111601715557419;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2023') = 0.111601715557419;</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -2410,11 +4067,11 @@
         <v>2.232034342941256E-2</v>
       </c>
       <c r="E132" t="s">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="J132" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2023') = 0.0223203434294126;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2023') = 0.0223203434294126;</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -2422,11 +4079,11 @@
         <v>4.5475362022788048E-2</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J133" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2023') = 0.045475362022788;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2023') = 0.045475362022788;</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -2434,11 +4091,11 @@
         <v>0.1136884067168209</v>
       </c>
       <c r="E134" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="J134" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2023') = 0.113688406716821;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2023') = 0.113688406716821;</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -2446,11 +4103,11 @@
         <v>2.2737681011394031E-2</v>
       </c>
       <c r="E135" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="J135" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2023') = 0.022737681011394;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2023') = 0.022737681011394;</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -2494,11 +4151,11 @@
         <v>4.3900050209203498E-2</v>
       </c>
       <c r="E139" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="J139" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2024') = 0.0439000502092035;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2024') = 0.0439000502092035;</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -2506,11 +4163,11 @@
         <v>0.1170667999804519</v>
       </c>
       <c r="E140" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2024') = 0.117066799980452;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2024') = 0.117066799980452;</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -2518,11 +4175,11 @@
         <v>1.463335064715858E-2</v>
       </c>
       <c r="E141" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="J141" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2024') = 0.0146333506471586;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2024') = 0.0146333506471586;</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
@@ -2530,11 +4187,11 @@
         <v>3.3582986639949429E-2</v>
       </c>
       <c r="E142" t="s">
-        <v>27</v>
+        <v>249</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2024') = 0.0335829866399494;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2024') = 0.0335829866399494;</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -2542,11 +4199,11 @@
         <v>0.1074655569263224</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2024') = 0.107465556926322;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2024') = 0.107465556926322;</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -2554,11 +4211,11 @@
         <v>2.0149791983969659E-2</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2024') = 0.0201497919839697;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2024') = 0.0201497919839697;</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -2566,11 +4223,11 @@
         <v>4.395534270778239E-2</v>
       </c>
       <c r="E145" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2024') = 0.0439553427077824;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2024') = 0.0439553427077824;</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -2578,11 +4235,11 @@
         <v>0.109888355204217</v>
       </c>
       <c r="E146" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2024') = 0.109888355204217;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2024') = 0.109888355204217;</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,11 +4247,11 @@
         <v>2.1977671353891191E-2</v>
       </c>
       <c r="E147" t="s">
-        <v>29</v>
+        <v>254</v>
       </c>
       <c r="J147" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2024') = 0.0219776713538912;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2024') = 0.0219776713538912;</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,11 +4259,11 @@
         <v>4.4826400307655473E-2</v>
       </c>
       <c r="E148" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="J148" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2024') = 0.0448264003076555;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2024') = 0.0448264003076555;</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -2614,11 +4271,11 @@
         <v>0.1120660024053023</v>
       </c>
       <c r="E149" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="J149" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2024') = 0.112066002405302;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2024') = 0.112066002405302;</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -2626,11 +4283,11 @@
         <v>2.241320015382774E-2</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="J150" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2024') = 0.0224132001538277;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2024') = 0.0224132001538277;</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -2674,11 +4331,11 @@
         <v>4.3211520874889983E-2</v>
       </c>
       <c r="E154" t="s">
-        <v>30</v>
+        <v>258</v>
       </c>
       <c r="J154" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2025') = 0.04321152087489;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2025') = 0.04321152087489;</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -2686,11 +4343,11 @@
         <v>0.11523072176467219</v>
       </c>
       <c r="E155" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="J155" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2025') = 0.115230721764672;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2025') = 0.115230721764672;</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -2698,11 +4355,11 @@
         <v>1.4403840859997741E-2</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c r="J156" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2025') = 0.0144038408599977;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2025') = 0.0144038408599977;</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -2710,11 +4367,11 @@
         <v>3.3010496472263472E-2</v>
       </c>
       <c r="E157" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="J157" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2025') = 0.0330104964722635;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2025') = 0.0330104964722635;</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,11 +4379,11 @@
         <v>0.1056335883952082</v>
       </c>
       <c r="E158" t="s">
-        <v>31</v>
+        <v>262</v>
       </c>
       <c r="J158" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2025') = 0.105633588395208;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2025') = 0.105633588395208;</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -2734,11 +4391,11 @@
         <v>1.9806297883358089E-2</v>
       </c>
       <c r="E159" t="s">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c r="J159" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2025') = 0.0198062978833581;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2025') = 0.0198062978833581;</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,11 +4403,11 @@
         <v>4.3262371028798222E-2</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="J160" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2025') = 0.0432623710287982;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2025') = 0.0432623710287982;</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -2758,11 +4415,11 @@
         <v>0.10815592603143311</v>
       </c>
       <c r="E161" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="J161" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2025') = 0.108155926031433;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2025') = 0.108155926031433;</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,11 +4427,11 @@
         <v>2.1631185514399111E-2</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c r="J162" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2025') = 0.0216311855143991;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2025') = 0.0216311855143991;</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -2782,11 +4439,11 @@
         <v>4.4129467015366568E-2</v>
       </c>
       <c r="E163" t="s">
-        <v>30</v>
+        <v>267</v>
       </c>
       <c r="J163" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2025') = 0.0441294670153666;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2025') = 0.0441294670153666;</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -2794,11 +4451,11 @@
         <v>0.110323669149142</v>
       </c>
       <c r="E164" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="J164" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2025') = 0.110323669149142;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2025') = 0.110323669149142;</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -2806,11 +4463,11 @@
         <v>2.2064733507683291E-2</v>
       </c>
       <c r="E165" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="J165" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2025') = 0.0220647335076833;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2025') = 0.0220647335076833;</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -2854,11 +4511,11 @@
         <v>4.2520073816298361E-2</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="J169" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2026') = 0.0425200738162984;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2026') = 0.0425200738162984;</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -2866,11 +4523,11 @@
         <v>0.1133868629508559</v>
       </c>
       <c r="E170" t="s">
-        <v>34</v>
+        <v>271</v>
       </c>
       <c r="J170" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2026') = 0.113386862950856;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2026') = 0.113386862950856;</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -2878,11 +4535,11 @@
         <v>1.4173358498039161E-2</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>272</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2026') = 0.0141733584980392;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2026') = 0.0141733584980392;</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -2890,11 +4547,11 @@
         <v>3.2439496494815832E-2</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2026') = 0.0324394964948158;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2026') = 0.0324394964948158;</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -2902,11 +4559,11 @@
         <v>0.1038063884728424</v>
       </c>
       <c r="E173" t="s">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="J173" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2026') = 0.103806388472842;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2026') = 0.103806388472842;</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,11 +4571,11 @@
         <v>1.9463697896889499E-2</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>275</v>
       </c>
       <c r="J174" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2026') = 0.0194636978968895;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2026') = 0.0194636978968895;</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -2926,11 +4583,11 @@
         <v>4.257113030875672E-2</v>
       </c>
       <c r="E175" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="J175" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2026') = 0.0425711303087567;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2026') = 0.0425711303087567;</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -2938,11 +4595,11 @@
         <v>0.1064278242559442</v>
       </c>
       <c r="E176" t="s">
-        <v>34</v>
+        <v>277</v>
       </c>
       <c r="J176" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2026') = 0.106427824255944;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2026') = 0.106427824255944;</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -2950,11 +4607,11 @@
         <v>2.128556515437836E-2</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>278</v>
       </c>
       <c r="J177" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2026') = 0.0212855651543784;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2026') = 0.0212855651543784;</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -2962,11 +4619,11 @@
         <v>4.3436960463573433E-2</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="J178" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2026') = 0.0434369604635734;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2026') = 0.0434369604635734;</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
@@ -2974,11 +4631,11 @@
         <v>0.1085924027443826</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>280</v>
       </c>
       <c r="J179" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2026') = 0.108592402744383;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2026') = 0.108592402744383;</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -2986,11 +4643,11 @@
         <v>2.171848023178671E-2</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>281</v>
       </c>
       <c r="J180" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2026') = 0.0217184802317867;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2026') = 0.0217184802317867;</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -3034,11 +4691,11 @@
         <v>4.1830041171665243E-2</v>
       </c>
       <c r="E184" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="J184" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2027') = 0.0418300411716652;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2027') = 0.0418300411716652;</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -3046,11 +4703,11 @@
         <v>0.111546775907577</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>283</v>
       </c>
       <c r="J185" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2027') = 0.111546775907577;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2027') = 0.111546775907577;</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
@@ -3058,11 +4715,11 @@
         <v>1.394334760741868E-2</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="J186" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2027') = 0.0139433476074187;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2027') = 0.0139433476074187;</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
@@ -3070,11 +4727,11 @@
         <v>3.1869404651257101E-2</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="J187" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2027') = 0.0318694046512571;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2027') = 0.0318694046512571;</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -3082,11 +4739,11 @@
         <v>0.1019820945789123</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>286</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2027') = 0.101982094578912;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2027') = 0.101982094578912;</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -3094,11 +4751,11 @@
         <v>1.9121642790754258E-2</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>287</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2027') = 0.0191216427907543;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2027') = 0.0191216427907543;</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -3106,11 +4763,11 @@
         <v>4.1880993824564679E-2</v>
       </c>
       <c r="E190" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2027') = 0.0418809938245647;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2027') = 0.0418809938245647;</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,11 +4775,11 @@
         <v>0.1047024830700397</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2027') = 0.10470248307004;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2027') = 0.10470248307004;</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -3130,11 +4787,11 @@
         <v>2.0940496912282339E-2</v>
       </c>
       <c r="E192" t="s">
-        <v>38</v>
+        <v>290</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2027') = 0.0209404969122823;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2027') = 0.0209404969122823;</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -3142,11 +4799,11 @@
         <v>4.2745380717932373E-2</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" si="2"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2027') = 0.0427453807179324;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2027') = 0.0427453807179324;</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -3154,11 +4811,11 @@
         <v>0.1068634533550374</v>
       </c>
       <c r="E194" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" ref="J194:J257" si="3">CONCATENATE(E194,A194,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B2','2027') = 0.106863453355037;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2027') = 0.106863453355037;</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -3166,11 +4823,11 @@
         <v>2.137269035896619E-2</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="J195" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2027') = 0.0213726903589662;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2027') = 0.0213726903589662;</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,11 +4871,11 @@
         <v>4.1141131727905018E-2</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>294</v>
       </c>
       <c r="J199" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2028') = 0.041141131727905;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2028') = 0.041141131727905;</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,11 +4883,11 @@
         <v>0.10970968406661109</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="J200" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2028') = 0.109709684066611;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2028') = 0.109709684066611;</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
@@ -3238,11 +4895,11 @@
         <v>1.3713711117103939E-2</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="J201" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2028') = 0.0137137111171039;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2028') = 0.0137137111171039;</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -3250,11 +4907,11 @@
         <v>3.130025813138327E-2</v>
       </c>
       <c r="E202" t="s">
-        <v>39</v>
+        <v>297</v>
       </c>
       <c r="J202" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2028') = 0.0313002581313833;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2028') = 0.0313002581313833;</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -3262,11 +4919,11 @@
         <v>0.100160825720765</v>
       </c>
       <c r="E203" t="s">
-        <v>40</v>
+        <v>298</v>
       </c>
       <c r="J203" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2028') = 0.100160825720765;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2028') = 0.100160825720765;</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,11 +4931,11 @@
         <v>1.878015487882996E-2</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="J204" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2028') = 0.01878015487883;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2028') = 0.01878015487883;</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -3286,11 +4943,11 @@
         <v>4.1192001396594208E-2</v>
       </c>
       <c r="E205" t="s">
-        <v>39</v>
+        <v>300</v>
       </c>
       <c r="J205" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2028') = 0.0411920013965942;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2028') = 0.0411920013965942;</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -3298,11 +4955,11 @@
         <v>0.1029800020246484</v>
       </c>
       <c r="E206" t="s">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="J206" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2028') = 0.102980002024648;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2028') = 0.102980002024648;</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
@@ -3310,11 +4967,11 @@
         <v>2.05960006982971E-2</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="J207" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2028') = 0.0205960006982971;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2028') = 0.0205960006982971;</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -3322,11 +4979,11 @@
         <v>4.2054959399928357E-2</v>
       </c>
       <c r="E208" t="s">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="J208" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2028') = 0.0420549593999284;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2028') = 0.0420549593999284;</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -3334,11 +4991,11 @@
         <v>0.10513740003482699</v>
       </c>
       <c r="E209" t="s">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="J209" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2028') = 0.105137400034827;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2028') = 0.105137400034827;</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -3346,11 +5003,11 @@
         <v>2.1027479699964179E-2</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="J210" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2028') = 0.0210274796999642;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2028') = 0.0210274796999642;</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -3394,11 +5051,11 @@
         <v>4.0453362911482209E-2</v>
       </c>
       <c r="E214" t="s">
-        <v>42</v>
+        <v>306</v>
       </c>
       <c r="J214" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2029') = 0.0404533629114822;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2029') = 0.0404533629114822;</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,11 +5063,11 @@
         <v>0.1078756338985299</v>
       </c>
       <c r="E215" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="J215" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2029') = 0.10787563389853;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2029') = 0.10787563389853;</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -3418,11 +5075,11 @@
         <v>1.348445483591668E-2</v>
       </c>
       <c r="E216" t="s">
-        <v>44</v>
+        <v>308</v>
       </c>
       <c r="J216" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2029') = 0.0134844548359167;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2029') = 0.0134844548359167;</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -3430,11 +5087,11 @@
         <v>3.0732052788751719E-2</v>
       </c>
       <c r="E217" t="s">
-        <v>42</v>
+        <v>309</v>
       </c>
       <c r="J217" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2029') = 0.0307320527887517;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2029') = 0.0307320527887517;</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -3442,11 +5099,11 @@
         <v>9.8342568629783897E-2</v>
       </c>
       <c r="E218" t="s">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="J218" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2029') = 0.0983425686297839;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2029') = 0.0983425686297839;</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -3454,11 +5111,11 @@
         <v>1.8439231673251039E-2</v>
       </c>
       <c r="E219" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="J219" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2029') = 0.018439231673251;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2029') = 0.018439231673251;</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -3466,11 +5123,11 @@
         <v>4.0504148352449233E-2</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>312</v>
       </c>
       <c r="J220" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2029') = 0.0405041483524492;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2029') = 0.0405041483524492;</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,11 +5135,11 @@
         <v>0.10126036943878031</v>
       </c>
       <c r="E221" t="s">
-        <v>43</v>
+        <v>313</v>
       </c>
       <c r="J221" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2029') = 0.10126036943878;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2029') = 0.10126036943878;</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -3490,11 +5147,11 @@
         <v>2.025207417622462E-2</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="J222" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2029') = 0.0202520741762246;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2029') = 0.0202520741762246;</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,11 +5159,11 @@
         <v>4.1365679029028518E-2</v>
       </c>
       <c r="E223" t="s">
-        <v>42</v>
+        <v>315</v>
       </c>
       <c r="J223" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2029') = 0.0413656790290285;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2029') = 0.0413656790290285;</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -3514,11 +5171,11 @@
         <v>0.1034141990824186</v>
       </c>
       <c r="E224" t="s">
-        <v>43</v>
+        <v>316</v>
       </c>
       <c r="J224" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2029') = 0.103414199082419;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2029') = 0.103414199082419;</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -3526,11 +5183,11 @@
         <v>2.0682839514514259E-2</v>
       </c>
       <c r="E225" t="s">
-        <v>44</v>
+        <v>317</v>
       </c>
       <c r="J225" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2029') = 0.0206828395145143;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2029') = 0.0206828395145143;</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -3574,11 +5231,11 @@
         <v>3.9766731548515177E-2</v>
       </c>
       <c r="E229" t="s">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="J229" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2030') = 0.0397667315485152;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2030') = 0.0397667315485152;</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -3586,11 +5243,11 @@
         <v>0.1060446169396492</v>
       </c>
       <c r="E230" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="J230" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2030') = 0.106044616939649;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2030') = 0.106044616939649;</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -3598,11 +5255,11 @@
         <v>1.3255577705896301E-2</v>
       </c>
       <c r="E231" t="s">
-        <v>47</v>
+        <v>320</v>
       </c>
       <c r="J231" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2030') = 0.0132555777058963;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2030') = 0.0132555777058963;</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -3610,11 +5267,11 @@
         <v>3.016478723913095E-2</v>
       </c>
       <c r="E232" t="s">
-        <v>45</v>
+        <v>321</v>
       </c>
       <c r="J232" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2030') = 0.0301647872391309;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2030') = 0.0301647872391309;</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,11 +5279,11 @@
         <v>9.6527318876428292E-2</v>
       </c>
       <c r="E233" t="s">
-        <v>46</v>
+        <v>322</v>
       </c>
       <c r="J233" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2030') = 0.0965273188764283;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2030') = 0.0965273188764283;</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -3634,11 +5291,11 @@
         <v>1.809887234347857E-2</v>
       </c>
       <c r="E234" t="s">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="J234" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2030') = 0.0180988723434786;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2030') = 0.0180988723434786;</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -3646,11 +5303,11 @@
         <v>3.9817432993243189E-2</v>
       </c>
       <c r="E235" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="J235" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2030') = 0.0398174329932432;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2030') = 0.0398174329932432;</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -3658,11 +5315,11 @@
         <v>9.9543581065218906E-2</v>
       </c>
       <c r="E236" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="J236" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2030') = 0.0995435810652189;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2030') = 0.0995435810652189;</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -3670,11 +5327,11 @@
         <v>1.9908716496621591E-2</v>
       </c>
       <c r="E237" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="J237" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2030') = 0.0199087164966216;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2030') = 0.0199087164966216;</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -3682,11 +5339,11 @@
         <v>4.0677538757199393E-2</v>
       </c>
       <c r="E238" t="s">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2030') = 0.0406775387571994;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2030') = 0.0406775387571994;</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -3694,11 +5351,11 @@
         <v>0.1016938483777287</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2030') = 0.101693848377729;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2030') = 0.101693848377729;</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -3706,11 +5363,11 @@
         <v>2.03387693785997E-2</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2030') = 0.0203387693785997;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2030') = 0.0203387693785997;</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -3754,11 +5411,11 @@
         <v>3.9081235843653271E-2</v>
       </c>
       <c r="E244" t="s">
-        <v>48</v>
+        <v>330</v>
       </c>
       <c r="J244" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2031') = 0.0390812358436533;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2031') = 0.0390812358436533;</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -3766,11 +5423,11 @@
         <v>0.1042166284023672</v>
       </c>
       <c r="E245" t="s">
-        <v>49</v>
+        <v>331</v>
       </c>
       <c r="J245" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2031') = 0.104216628402367;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2031') = 0.104216628402367;</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -3778,11 +5435,11 @@
         <v>1.3027079128592569E-2</v>
       </c>
       <c r="E246" t="s">
-        <v>50</v>
+        <v>332</v>
       </c>
       <c r="J246" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2031') = 0.0130270791285926;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2031') = 0.0130270791285926;</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -3790,11 +5447,11 @@
         <v>2.9598459916641361E-2</v>
       </c>
       <c r="E247" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="J247" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2031') = 0.0295984599166414;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2031') = 0.0295984599166414;</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -3802,11 +5459,11 @@
         <v>9.4715071449883503E-2</v>
       </c>
       <c r="E248" t="s">
-        <v>49</v>
+        <v>334</v>
       </c>
       <c r="J248" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2031') = 0.0947150714498835;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2031') = 0.0947150714498835;</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -3814,11 +5471,11 @@
         <v>1.7759075949984819E-2</v>
       </c>
       <c r="E249" t="s">
-        <v>50</v>
+        <v>335</v>
       </c>
       <c r="J249" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2031') = 0.0177590759499848;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2031') = 0.0177590759499848;</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -3826,11 +5483,11 @@
         <v>3.9131853424914417E-2</v>
       </c>
       <c r="E250" t="s">
-        <v>48</v>
+        <v>336</v>
       </c>
       <c r="J250" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2031') = 0.0391318534249144;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2031') = 0.0391318534249144;</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -3838,11 +5495,11 @@
         <v>9.7829632168810285E-2</v>
       </c>
       <c r="E251" t="s">
-        <v>49</v>
+        <v>337</v>
       </c>
       <c r="J251" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2031') = 0.0978296321688103;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2031') = 0.0978296321688103;</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -3850,11 +5507,11 @@
         <v>1.9565926712457209E-2</v>
       </c>
       <c r="E252" t="s">
-        <v>50</v>
+        <v>338</v>
       </c>
       <c r="J252" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2031') = 0.0195659267124572;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2031') = 0.0195659267124572;</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -3862,11 +5519,11 @@
         <v>3.9990536629413979E-2</v>
       </c>
       <c r="E253" t="s">
-        <v>48</v>
+        <v>339</v>
       </c>
       <c r="J253" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2031') = 0.039990536629414;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2031') = 0.039990536629414;</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -3874,11 +5531,11 @@
         <v>9.9976343033189558E-2</v>
       </c>
       <c r="E254" t="s">
-        <v>49</v>
+        <v>340</v>
       </c>
       <c r="J254" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2031') = 0.0999763430331896;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2031') = 0.0999763430331896;</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -3886,11 +5543,11 @@
         <v>1.999526831470699E-2</v>
       </c>
       <c r="E255" t="s">
-        <v>50</v>
+        <v>341</v>
       </c>
       <c r="J255" t="str">
         <f t="shared" si="3"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2031') = 0.019995268314707;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2031') = 0.019995268314707;</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -3934,11 +5591,11 @@
         <v>3.8396873912839788E-2</v>
       </c>
       <c r="E259" t="s">
-        <v>51</v>
+        <v>342</v>
       </c>
       <c r="J259" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2032') = 0.0383968739128398;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2032') = 0.0383968739128398;</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -3946,11 +5603,11 @@
         <v>0.10239166326253279</v>
       </c>
       <c r="E260" t="s">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="J260" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2032') = 0.102391663262533;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2032') = 0.102391663262533;</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -3958,11 +5615,11 @@
         <v>1.279895847598655E-2</v>
       </c>
       <c r="E261" t="s">
-        <v>53</v>
+        <v>344</v>
       </c>
       <c r="J261" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2032') = 0.0127989584759865;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2032') = 0.0127989584759865;</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -3970,11 +5627,11 @@
         <v>2.9033069270272261E-2</v>
       </c>
       <c r="E262" t="s">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="J262" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2032') = 0.0290330692702723;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2032') = 0.0290330692702723;</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -3982,11 +5639,11 @@
         <v>9.2905821386915291E-2</v>
       </c>
       <c r="E263" t="s">
-        <v>52</v>
+        <v>346</v>
       </c>
       <c r="J263" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2032') = 0.0929058213869153;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2032') = 0.0929058213869153;</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -3994,11 +5651,11 @@
         <v>1.7419841562163359E-2</v>
       </c>
       <c r="E264" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="J264" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2032') = 0.0174198415621634;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2032') = 0.0174198415621634;</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -4006,11 +5663,11 @@
         <v>3.8447407769750662E-2</v>
       </c>
       <c r="E265" t="s">
-        <v>51</v>
+        <v>348</v>
       </c>
       <c r="J265" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2032') = 0.0384474077697507;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2032') = 0.0384474077697507;</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -4018,11 +5675,11 @@
         <v>9.6118518055273855E-2</v>
       </c>
       <c r="E266" t="s">
-        <v>52</v>
+        <v>349</v>
       </c>
       <c r="J266" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2032') = 0.0961185180552739;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2032') = 0.0961185180552739;</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -4030,11 +5687,11 @@
         <v>1.9223703884875331E-2</v>
       </c>
       <c r="E267" t="s">
-        <v>53</v>
+        <v>350</v>
       </c>
       <c r="J267" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2032') = 0.0192237038848753;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2032') = 0.0192237038848753;</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -4042,11 +5699,11 @@
         <v>3.9304670767871287E-2</v>
       </c>
       <c r="E268" t="s">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="J268" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2032') = 0.0393046707678713;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2032') = 0.0393046707678713;</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -4054,11 +5711,11 @@
         <v>9.826167835429872E-2</v>
       </c>
       <c r="E269" t="s">
-        <v>52</v>
+        <v>352</v>
       </c>
       <c r="J269" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2032') = 0.0982616783542987;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2032') = 0.0982616783542987;</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -4066,11 +5723,11 @@
         <v>1.965233538393564E-2</v>
       </c>
       <c r="E270" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="J270" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2032') = 0.0196523353839356;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2032') = 0.0196523353839356;</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -4114,11 +5771,11 @@
         <v>3.7713643881254137E-2</v>
       </c>
       <c r="E274" t="s">
-        <v>54</v>
+        <v>354</v>
       </c>
       <c r="J274" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2033') = 0.0377136438812541;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2033') = 0.0377136438812541;</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -4126,11 +5783,11 @@
         <v>0.10056971652062439</v>
       </c>
       <c r="E275" t="s">
-        <v>55</v>
+        <v>355</v>
       </c>
       <c r="J275" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2033') = 0.100569716520624;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2033') = 0.100569716520624;</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -4138,11 +5795,11 @@
         <v>1.257121512313804E-2</v>
       </c>
       <c r="E276" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="J276" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2033') = 0.012571215123138;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2033') = 0.012571215123138;</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -4150,11 +5807,11 @@
         <v>2.8468613750758539E-2</v>
       </c>
       <c r="E277" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="J277" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2033') = 0.0284686137507585;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2033') = 0.0284686137507585;</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,11 +5819,11 @@
         <v>9.1099563729875335E-2</v>
       </c>
       <c r="E278" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
       <c r="J278" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2033') = 0.0910995637298753;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2033') = 0.0910995637298753;</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -4174,11 +5831,11 @@
         <v>1.7081168250455119E-2</v>
       </c>
       <c r="E279" t="s">
-        <v>56</v>
+        <v>359</v>
       </c>
       <c r="J279" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2033') = 0.0170811682504551;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2033') = 0.0170811682504551;</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -4186,11 +5843,11 @@
         <v>3.7764094152263082E-2</v>
       </c>
       <c r="E280" t="s">
-        <v>54</v>
+        <v>360</v>
       </c>
       <c r="J280" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2033') = 0.0377640941522631;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2033') = 0.0377640941522631;</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -4198,11 +5855,11 @@
         <v>9.4410234035887525E-2</v>
       </c>
       <c r="E281" t="s">
-        <v>55</v>
+        <v>361</v>
       </c>
       <c r="J281" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2033') = 0.0944102340358875;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2033') = 0.0944102340358875;</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -4210,11 +5867,11 @@
         <v>1.8882047076131541E-2</v>
       </c>
       <c r="E282" t="s">
-        <v>56</v>
+        <v>362</v>
       </c>
       <c r="J282" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2033') = 0.0188820470761315;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2033') = 0.0188820470761315;</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -4222,11 +5879,11 @@
         <v>3.8619939292936702E-2</v>
       </c>
       <c r="E283" t="s">
-        <v>54</v>
+        <v>363</v>
       </c>
       <c r="J283" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2033') = 0.0386199392929367;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2033') = 0.0386199392929367;</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -4234,11 +5891,11 @@
         <v>9.6549849641969554E-2</v>
       </c>
       <c r="E284" t="s">
-        <v>55</v>
+        <v>364</v>
       </c>
       <c r="J284" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2033') = 0.0965498496419696;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2033') = 0.0965498496419696;</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -4246,11 +5903,11 @@
         <v>1.9309969646468351E-2</v>
       </c>
       <c r="E285" t="s">
-        <v>56</v>
+        <v>365</v>
       </c>
       <c r="J285" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2033') = 0.0193099696464684;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2033') = 0.0193099696464684;</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -4294,11 +5951,11 @@
         <v>3.7031543876768033E-2</v>
       </c>
       <c r="E289" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
       <c r="J289" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2034') = 0.037031543876768;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2034') = 0.037031543876768;</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -4306,11 +5963,11 @@
         <v>9.8750783184299848E-2</v>
       </c>
       <c r="E290" t="s">
-        <v>58</v>
+        <v>367</v>
       </c>
       <c r="J290" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2034') = 0.0987507831842998;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2034') = 0.0987507831842998;</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -4318,11 +5975,11 @@
         <v>1.234384844600424E-2</v>
       </c>
       <c r="E291" t="s">
-        <v>59</v>
+        <v>368</v>
       </c>
       <c r="J291" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2034') = 0.0123438484460042;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2034') = 0.0123438484460042;</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -4330,11 +5987,11 @@
         <v>2.7905091811452211E-2</v>
       </c>
       <c r="E292" t="s">
-        <v>57</v>
+        <v>369</v>
       </c>
       <c r="J292" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2034') = 0.0279050918114522;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2034') = 0.0279050918114522;</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -4342,11 +5999,11 @@
         <v>8.9296293529490117E-2</v>
       </c>
       <c r="E293" t="s">
-        <v>58</v>
+        <v>370</v>
       </c>
       <c r="J293" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2034') = 0.0892962935294901;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2034') = 0.0892962935294901;</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -4354,11 +6011,11 @@
         <v>1.6743055086871329E-2</v>
       </c>
       <c r="E294" t="s">
-        <v>59</v>
+        <v>371</v>
       </c>
       <c r="J294" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2034') = 0.0167430550868713;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2034') = 0.0167430550868713;</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -4366,11 +6023,11 @@
         <v>3.7081910700123608E-2</v>
       </c>
       <c r="E295" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="J295" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2034') = 0.0370819107001236;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2034') = 0.0370819107001236;</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -4378,11 +6035,11 @@
         <v>9.2704775429831243E-2</v>
       </c>
       <c r="E296" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J296" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2034') = 0.0927047754298312;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2034') = 0.0927047754298312;</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -4390,11 +6047,11 @@
         <v>1.8540955350061811E-2</v>
       </c>
       <c r="E297" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="J297" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2034') = 0.0185409553500618;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2034') = 0.0185409553500618;</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -4402,11 +6059,11 @@
         <v>3.7936340328414107E-2</v>
       </c>
       <c r="E298" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="J298" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2034') = 0.0379363403284141;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2034') = 0.0379363403284141;</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -4414,11 +6071,11 @@
         <v>9.4840852205711715E-2</v>
       </c>
       <c r="E299" t="s">
-        <v>58</v>
+        <v>376</v>
       </c>
       <c r="J299" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2034') = 0.0948408522057117;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2034') = 0.0948408522057117;</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -4426,11 +6083,11 @@
         <v>1.896817016420705E-2</v>
       </c>
       <c r="E300" t="s">
-        <v>59</v>
+        <v>377</v>
       </c>
       <c r="J300" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2034') = 0.0189681701642071;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2034') = 0.0189681701642071;</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -4474,11 +6131,11 @@
         <v>3.6350572030376858E-2</v>
       </c>
       <c r="E304" t="s">
-        <v>60</v>
+        <v>378</v>
       </c>
       <c r="J304" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2035') = 0.0363505720303769;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2035') = 0.0363505720303769;</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -4486,11 +6143,11 @@
         <v>9.6934858269546967E-2</v>
       </c>
       <c r="E305" t="s">
-        <v>61</v>
+        <v>379</v>
       </c>
       <c r="J305" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2035') = 0.096934858269547;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2035') = 0.096934858269547;</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -4498,11 +6155,11 @@
         <v>1.2116857821583589E-2</v>
       </c>
       <c r="E306" t="s">
-        <v>62</v>
+        <v>380</v>
       </c>
       <c r="J306" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2035') = 0.0121168578215836;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2035') = 0.0121168578215836;</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -4510,11 +6167,11 @@
         <v>2.7342501908259719E-2</v>
       </c>
       <c r="E307" t="s">
-        <v>60</v>
+        <v>381</v>
       </c>
       <c r="J307" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2035') = 0.0273425019082597;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2035') = 0.0273425019082597;</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -4522,11 +6179,11 @@
         <v>8.749600584466026E-2</v>
       </c>
       <c r="E308" t="s">
-        <v>61</v>
+        <v>382</v>
       </c>
       <c r="J308" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2035') = 0.0874960058446603;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2035') = 0.0874960058446603;</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -4534,11 +6191,11 @@
         <v>1.6405501144955831E-2</v>
       </c>
       <c r="E309" t="s">
-        <v>62</v>
+        <v>383</v>
       </c>
       <c r="J309" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2035') = 0.0164055011449558;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2035') = 0.0164055011449558;</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -4546,11 +6203,11 @@
         <v>3.6400855544097048E-2</v>
       </c>
       <c r="E310" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="J310" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2035') = 0.036400855544097;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2035') = 0.036400855544097;</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -4558,11 +6215,11 @@
         <v>9.1002137564017066E-2</v>
       </c>
       <c r="E311" t="s">
-        <v>61</v>
+        <v>385</v>
       </c>
       <c r="J311" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2035') = 0.0910021375640171;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2035') = 0.0910021375640171;</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -4570,11 +6227,11 @@
         <v>1.8200427772048531E-2</v>
       </c>
       <c r="E312" t="s">
-        <v>62</v>
+        <v>386</v>
       </c>
       <c r="J312" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2035') = 0.0182004277720485;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2035') = 0.0182004277720485;</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -4582,11 +6239,11 @@
         <v>3.725387200118855E-2</v>
       </c>
       <c r="E313" t="s">
-        <v>60</v>
+        <v>387</v>
       </c>
       <c r="J313" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2035') = 0.0372538720011885;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2035') = 0.0372538720011885;</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -4594,11 +6251,11 @@
         <v>9.3134681362737726E-2</v>
       </c>
       <c r="E314" t="s">
-        <v>61</v>
+        <v>388</v>
       </c>
       <c r="J314" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2035') = 0.0931346813627377;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2035') = 0.0931346813627377;</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -4606,11 +6263,11 @@
         <v>1.8626936000594271E-2</v>
       </c>
       <c r="E315" t="s">
-        <v>62</v>
+        <v>389</v>
       </c>
       <c r="J315" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2035') = 0.0186269360005943;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2035') = 0.0186269360005943;</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -4654,11 +6311,11 @@
         <v>3.5670726476165412E-2</v>
       </c>
       <c r="E319" t="s">
-        <v>63</v>
+        <v>390</v>
       </c>
       <c r="J319" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2036') = 0.0356707264761654;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2036') = 0.0356707264761654;</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -4666,11 +6323,11 @@
         <v>9.5121936800591902E-2</v>
       </c>
       <c r="E320" t="s">
-        <v>64</v>
+        <v>391</v>
       </c>
       <c r="J320" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2036') = 0.0951219368005919;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2036') = 0.0951219368005919;</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -4678,11 +6335,11 @@
         <v>1.189024262790433E-2</v>
       </c>
       <c r="E321" t="s">
-        <v>65</v>
+        <v>392</v>
       </c>
       <c r="J321" t="str">
         <f t="shared" si="4"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2036') = 0.0118902426279043;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2036') = 0.0118902426279043;</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -4690,11 +6347,11 @@
         <v>2.6780842499641608E-2</v>
       </c>
       <c r="E322" t="s">
-        <v>63</v>
+        <v>393</v>
       </c>
       <c r="J322" t="str">
         <f t="shared" ref="J322:J385" si="5">CONCATENATE(E322,A322,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B1','2036') = 0.0267808424996416;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2036') = 0.0267808424996416;</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -4702,11 +6359,11 @@
         <v>8.5698695742459502E-2</v>
       </c>
       <c r="E323" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="J323" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2036') = 0.0856986957424595;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2036') = 0.0856986957424595;</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -4714,11 +6371,11 @@
         <v>1.606850549978496E-2</v>
       </c>
       <c r="E324" t="s">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="J324" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2036') = 0.016068505499785;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2036') = 0.016068505499785;</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -4726,11 +6383,11 @@
         <v>3.5720926818040073E-2</v>
       </c>
       <c r="E325" t="s">
-        <v>63</v>
+        <v>396</v>
       </c>
       <c r="J325" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2036') = 0.0357209268180401;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2036') = 0.0357209268180401;</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -4738,11 +6395,11 @@
         <v>8.9302315773086685E-2</v>
       </c>
       <c r="E326" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="J326" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2036') = 0.0893023157730867;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2036') = 0.0893023157730867;</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -4750,11 +6407,11 @@
         <v>1.786046340902003E-2</v>
       </c>
       <c r="E327" t="s">
-        <v>65</v>
+        <v>398</v>
       </c>
       <c r="J327" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2036') = 0.01786046340902;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2036') = 0.01786046340902;</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -4762,11 +6419,11 @@
         <v>3.6572532441244567E-2</v>
       </c>
       <c r="E328" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="J328" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2036') = 0.0365725324412446;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2036') = 0.0365725324412446;</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -4774,11 +6431,11 @@
         <v>9.1431332438008897E-2</v>
       </c>
       <c r="E329" t="s">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="J329" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2036') = 0.0914313324380089;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2036') = 0.0914313324380089;</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -4786,11 +6443,11 @@
         <v>1.828626622062229E-2</v>
       </c>
       <c r="E330" t="s">
-        <v>65</v>
+        <v>401</v>
       </c>
       <c r="J330" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2036') = 0.0182862662206223;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2036') = 0.0182862662206223;</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -4834,11 +6491,11 @@
         <v>3.4992005351304763E-2</v>
       </c>
       <c r="E334" t="s">
-        <v>66</v>
+        <v>402</v>
       </c>
       <c r="J334" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2037') = 0.0349920053513048;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2037') = 0.0349920053513048;</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -4846,11 +6503,11 @@
         <v>9.3312013809890806E-2</v>
       </c>
       <c r="E335" t="s">
-        <v>67</v>
+        <v>403</v>
       </c>
       <c r="J335" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2037') = 0.0933120138098908;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2037') = 0.0933120138098908;</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -4858,11 +6515,11 @@
         <v>1.166400224402345E-2</v>
       </c>
       <c r="E336" t="s">
-        <v>68</v>
+        <v>404</v>
       </c>
       <c r="J336" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2037') = 0.0116640022440235;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2037') = 0.0116640022440235;</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -4870,11 +6527,11 @@
         <v>2.6220112046608009E-2</v>
       </c>
       <c r="E337" t="s">
-        <v>66</v>
+        <v>405</v>
       </c>
       <c r="J337" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2037') = 0.026220112046608;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2037') = 0.026220112046608;</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -4882,11 +6539,11 @@
         <v>8.3904358298120305E-2</v>
       </c>
       <c r="E338" t="s">
-        <v>67</v>
+        <v>406</v>
       </c>
       <c r="J338" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2037') = 0.0839043582981203;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2037') = 0.0839043582981203;</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -4894,11 +6551,11 @@
         <v>1.5732067227964809E-2</v>
       </c>
       <c r="E339" t="s">
-        <v>68</v>
+        <v>407</v>
       </c>
       <c r="J339" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2037') = 0.0157320672279648;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2037') = 0.0157320672279648;</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -4906,11 +6563,11 @@
         <v>3.5042122658895801E-2</v>
       </c>
       <c r="E340" t="s">
-        <v>66</v>
+        <v>408</v>
       </c>
       <c r="J340" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2037') = 0.0350421226588958;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2037') = 0.0350421226588958;</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -4918,11 +6575,11 @@
         <v>8.7605305399398065E-2</v>
       </c>
       <c r="E341" t="s">
-        <v>67</v>
+        <v>409</v>
       </c>
       <c r="J341" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2037') = 0.0876053053993981;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2037') = 0.0876053053993981;</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -4930,11 +6587,11 @@
         <v>1.75210613294479E-2</v>
       </c>
       <c r="E342" t="s">
-        <v>68</v>
+        <v>410</v>
       </c>
       <c r="J342" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2037') = 0.0175210613294479;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2037') = 0.0175210613294479;</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -4942,11 +6599,11 @@
         <v>3.5892319781659521E-2</v>
       </c>
       <c r="E343" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="J343" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2037') = 0.0358923197816595;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2037') = 0.0358923197816595;</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -4954,11 +6611,11 @@
         <v>8.9730800764218493E-2</v>
       </c>
       <c r="E344" t="s">
-        <v>67</v>
+        <v>412</v>
       </c>
       <c r="J344" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2037') = 0.0897308007642185;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2037') = 0.0897308007642185;</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -4966,11 +6623,11 @@
         <v>1.794615989082976E-2</v>
       </c>
       <c r="E345" t="s">
-        <v>68</v>
+        <v>413</v>
       </c>
       <c r="J345" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2037') = 0.0179461598908298;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2037') = 0.0179461598908298;</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -5014,11 +6671,11 @@
         <v>3.4314406796046949E-2</v>
       </c>
       <c r="E349" t="s">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="J349" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2038') = 0.0343144067960469;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2038') = 0.0343144067960469;</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -5026,11 +6683,11 @@
         <v>9.1505084338115869E-2</v>
       </c>
       <c r="E350" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="J350" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2038') = 0.0915050843381159;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2038') = 0.0915050843381159;</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -5038,11 +6695,11 @@
         <v>1.143813605002496E-2</v>
       </c>
       <c r="E351" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="J351" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2038') = 0.011438136050025;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2038') = 0.011438136050025;</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -5050,11 +6707,11 @@
         <v>2.5660309012714481E-2</v>
       </c>
       <c r="E352" t="s">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="J352" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2038') = 0.0256603090127145;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2038') = 0.0256603090127145;</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -5062,11 +6719,11 @@
         <v>8.2112988595020434E-2</v>
       </c>
       <c r="E353" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="J353" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2038') = 0.0821129885950204;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2038') = 0.0821129885950204;</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -5074,11 +6731,11 @@
         <v>1.5396185407628689E-2</v>
       </c>
       <c r="E354" t="s">
-        <v>71</v>
+        <v>419</v>
       </c>
       <c r="J354" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2038') = 0.0153961854076287;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2038') = 0.0153961854076287;</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -5086,11 +6743,11 @@
         <v>3.4364441206688773E-2</v>
       </c>
       <c r="E355" t="s">
-        <v>69</v>
+        <v>420</v>
       </c>
       <c r="J355" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2038') = 0.0343644412066888;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2038') = 0.0343644412066888;</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -5098,11 +6755,11 @@
         <v>8.5911101793012548E-2</v>
       </c>
       <c r="E356" t="s">
-        <v>70</v>
+        <v>421</v>
       </c>
       <c r="J356" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2038') = 0.0859111017930125;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2038') = 0.0859111017930125;</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -5110,11 +6767,11 @@
         <v>1.7182220603344379E-2</v>
       </c>
       <c r="E357" t="s">
-        <v>71</v>
+        <v>422</v>
       </c>
       <c r="J357" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2038') = 0.0171822206033444;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2038') = 0.0171822206033444;</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -5122,11 +6779,11 @@
         <v>3.521323215859852E-2</v>
       </c>
       <c r="E358" t="s">
-        <v>69</v>
+        <v>423</v>
       </c>
       <c r="J358" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2038') = 0.0352132321585985;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2038') = 0.0352132321585985;</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -5134,11 +6791,11 @@
         <v>8.8033081681779285E-2</v>
       </c>
       <c r="E359" t="s">
-        <v>70</v>
+        <v>424</v>
       </c>
       <c r="J359" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2038') = 0.0880330816817793;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2038') = 0.0880330816817793;</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -5146,11 +6803,11 @@
         <v>1.760661607929926E-2</v>
       </c>
       <c r="E360" t="s">
-        <v>71</v>
+        <v>425</v>
       </c>
       <c r="J360" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2038') = 0.0176066160792993;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2038') = 0.0176066160792993;</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -5194,11 +6851,11 @@
         <v>3.3637928953719982E-2</v>
       </c>
       <c r="E364" t="s">
-        <v>72</v>
+        <v>426</v>
       </c>
       <c r="J364" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2039') = 0.03363792895372;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2039') = 0.03363792895372;</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -5206,11 +6863,11 @@
         <v>8.9701143434141775E-2</v>
       </c>
       <c r="E365" t="s">
-        <v>73</v>
+        <v>427</v>
       </c>
       <c r="J365" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2039') = 0.0897011434341418;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2039') = 0.0897011434341418;</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -5218,11 +6875,11 @@
         <v>1.121264342701815E-2</v>
       </c>
       <c r="E366" t="s">
-        <v>74</v>
+        <v>428</v>
       </c>
       <c r="J366" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2039') = 0.0112126434270181;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2039') = 0.0112126434270181;</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -5230,11 +6887,11 @@
         <v>2.5101431864057781E-2</v>
       </c>
       <c r="E367" t="s">
-        <v>72</v>
+        <v>429</v>
       </c>
       <c r="J367" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2039') = 0.0251014318640578;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2039') = 0.0251014318640578;</v>
       </c>
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
@@ -5242,11 +6899,11 @@
         <v>8.0324581724669566E-2</v>
       </c>
       <c r="E368" t="s">
-        <v>73</v>
+        <v>430</v>
       </c>
       <c r="J368" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2039') = 0.0803245817246696;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2039') = 0.0803245817246696;</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
@@ -5254,11 +6911,11 @@
         <v>1.5060859118434669E-2</v>
       </c>
       <c r="E369" t="s">
-        <v>74</v>
+        <v>431</v>
       </c>
       <c r="J369" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2039') = 0.0150608591184347;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2039') = 0.0150608591184347;</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
@@ -5266,11 +6923,11 @@
         <v>3.3687880604519847E-2</v>
       </c>
       <c r="E370" t="s">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="J370" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2039') = 0.0336878806045198;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2039') = 0.0336878806045198;</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
@@ -5278,11 +6935,11 @@
         <v>8.4219700311682424E-2</v>
       </c>
       <c r="E371" t="s">
-        <v>73</v>
+        <v>433</v>
       </c>
       <c r="J371" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2039') = 0.0842197003116824;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2039') = 0.0842197003116824;</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
@@ -5290,11 +6947,11 @@
         <v>1.6843940302259931E-2</v>
       </c>
       <c r="E372" t="s">
-        <v>74</v>
+        <v>434</v>
       </c>
       <c r="J372" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2039') = 0.0168439403022599;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2039') = 0.0168439403022599;</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
@@ -5302,11 +6959,11 @@
         <v>3.4535267711309443E-2</v>
       </c>
       <c r="E373" t="s">
-        <v>72</v>
+        <v>435</v>
       </c>
       <c r="J373" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2039') = 0.0345352677113094;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2039') = 0.0345352677113094;</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
@@ -5314,11 +6971,11 @@
         <v>8.6338170538810877E-2</v>
       </c>
       <c r="E374" t="s">
-        <v>73</v>
+        <v>436</v>
       </c>
       <c r="J374" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2039') = 0.0863381705388109;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2039') = 0.0863381705388109;</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
@@ -5326,11 +6983,11 @@
         <v>1.7267633855654722E-2</v>
       </c>
       <c r="E375" t="s">
-        <v>74</v>
+        <v>437</v>
       </c>
       <c r="J375" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2039') = 0.0172676338556547;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2039') = 0.0172676338556547;</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
@@ -5374,11 +7031,11 @@
         <v>3.2962569970722687E-2</v>
       </c>
       <c r="E379" t="s">
-        <v>75</v>
+        <v>438</v>
       </c>
       <c r="J379" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2040') = 0.0329625699707227;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2040') = 0.0329625699707227;</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
@@ -5386,11 +7043,11 @@
         <v>8.790018615503209E-2</v>
       </c>
       <c r="E380" t="s">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="J380" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2040') = 0.0879001861550321;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2040') = 0.0879001861550321;</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -5398,11 +7055,11 @@
         <v>1.0987523757135961E-2</v>
       </c>
       <c r="E381" t="s">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="J381" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2040') = 0.010987523757136;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2040') = 0.010987523757136;</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -5410,11 +7067,11 @@
         <v>2.4543479069271672E-2</v>
       </c>
       <c r="E382" t="s">
-        <v>75</v>
+        <v>441</v>
       </c>
       <c r="J382" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2040') = 0.0245434790692717;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2040') = 0.0245434790692717;</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -5422,11 +7079,11 @@
         <v>7.8539132786695692E-2</v>
       </c>
       <c r="E383" t="s">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="J383" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2040') = 0.0785391327866957;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2040') = 0.0785391327866957;</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
@@ -5434,11 +7091,11 @@
         <v>1.4726087441563E-2</v>
       </c>
       <c r="E384" t="s">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="J384" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2040') = 0.014726087441563;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2040') = 0.014726087441563;</v>
       </c>
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
@@ -5446,11 +7103,11 @@
         <v>3.30124389985611E-2</v>
       </c>
       <c r="E385" t="s">
-        <v>75</v>
+        <v>444</v>
       </c>
       <c r="J385" t="str">
         <f t="shared" si="5"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2040') = 0.0330124389985611;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2040') = 0.0330124389985611;</v>
       </c>
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
@@ -5458,11 +7115,11 @@
         <v>8.2531096320837855E-2</v>
       </c>
       <c r="E386" t="s">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="J386" t="str">
         <f t="shared" ref="J386:J449" si="6">CONCATENATE(E386,A386,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B2','2040') = 0.0825310963208379;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2040') = 0.0825310963208379;</v>
       </c>
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
@@ -5470,11 +7127,11 @@
         <v>1.650621949928055E-2</v>
       </c>
       <c r="E387" t="s">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="J387" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2040') = 0.0165062194992805;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2040') = 0.0165062194992805;</v>
       </c>
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
@@ -5482,11 +7139,11 @@
         <v>3.3858424582117658E-2</v>
       </c>
       <c r="E388" t="s">
-        <v>75</v>
+        <v>447</v>
       </c>
       <c r="J388" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2040') = 0.0338584245821177;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2040') = 0.0338584245821177;</v>
       </c>
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.25">
@@ -5494,11 +7151,11 @@
         <v>8.4646062691126678E-2</v>
       </c>
       <c r="E389" t="s">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="J389" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2040') = 0.0846460626911267;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2040') = 0.0846460626911267;</v>
       </c>
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
@@ -5506,11 +7163,11 @@
         <v>1.6929212291058829E-2</v>
       </c>
       <c r="E390" t="s">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="J390" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2040') = 0.0169292122910588;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2040') = 0.0169292122910588;</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -5554,11 +7211,11 @@
         <v>3.2288327996519671E-2</v>
       </c>
       <c r="E394" t="s">
-        <v>78</v>
+        <v>450</v>
       </c>
       <c r="J394" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2041') = 0.0322883279965197;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2041') = 0.0322883279965197;</v>
       </c>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.25">
@@ -5566,11 +7223,11 @@
         <v>8.6102207566025796E-2</v>
       </c>
       <c r="E395" t="s">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="J395" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2041') = 0.0861022075660258;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2041') = 0.0861022075660258;</v>
       </c>
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
@@ -5578,11 +7235,11 @@
         <v>1.076277642353321E-2</v>
       </c>
       <c r="E396" t="s">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="J396" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2041') = 0.0107627764235332;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2041') = 0.0107627764235332;</v>
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
@@ -5590,11 +7247,11 @@
         <v>2.3986449099522682E-2</v>
       </c>
       <c r="E397" t="s">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="J397" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2041') = 0.0239864490995227;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2041') = 0.0239864490995227;</v>
       </c>
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
@@ -5602,11 +7259,11 @@
         <v>7.6756636888831831E-2</v>
       </c>
       <c r="E398" t="s">
-        <v>79</v>
+        <v>454</v>
       </c>
       <c r="J398" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2041') = 0.0767566368888318;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2041') = 0.0767566368888318;</v>
       </c>
     </row>
     <row r="399" spans="1:10" x14ac:dyDescent="0.25">
@@ -5614,11 +7271,11 @@
         <v>1.4391869459713611E-2</v>
       </c>
       <c r="E399" t="s">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="J399" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2041') = 0.0143918694597136;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2041') = 0.0143918694597136;</v>
       </c>
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
@@ -5626,11 +7283,11 @@
         <v>3.2338114538050723E-2</v>
       </c>
       <c r="E400" t="s">
-        <v>78</v>
+        <v>456</v>
       </c>
       <c r="J400" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2041') = 0.0323381145380507;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2041') = 0.0323381145380507;</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -5638,11 +7295,11 @@
         <v>8.0845285193574451E-2</v>
       </c>
       <c r="E401" t="s">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="J401" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2041') = 0.0808452851935745;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2041') = 0.0808452851935745;</v>
       </c>
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
@@ -5650,11 +7307,11 @@
         <v>1.6169057269025362E-2</v>
       </c>
       <c r="E402" t="s">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="J402" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2041') = 0.0161690572690254;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2041') = 0.0161690572690254;</v>
       </c>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.25">
@@ -5662,11 +7319,11 @@
         <v>3.3182700916421129E-2</v>
       </c>
       <c r="E403" t="s">
-        <v>78</v>
+        <v>459</v>
       </c>
       <c r="J403" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2041') = 0.0331827009164211;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2041') = 0.0331827009164211;</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -5674,11 +7331,11 @@
         <v>8.2956753502221425E-2</v>
       </c>
       <c r="E404" t="s">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="J404" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2041') = 0.0829567535022214;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2041') = 0.0829567535022214;</v>
       </c>
     </row>
     <row r="405" spans="1:10" x14ac:dyDescent="0.25">
@@ -5686,11 +7343,11 @@
         <v>1.6591350458210561E-2</v>
       </c>
       <c r="E405" t="s">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="J405" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2041') = 0.0165913504582106;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2041') = 0.0165913504582106;</v>
       </c>
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
@@ -5734,11 +7391,11 @@
         <v>3.1615201183636213E-2</v>
       </c>
       <c r="E409" t="s">
-        <v>81</v>
+        <v>462</v>
       </c>
       <c r="J409" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2042') = 0.0316152011836362;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2042') = 0.0316152011836362;</v>
       </c>
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
@@ -5746,11 +7403,11 @@
         <v>8.4307202740523626E-2</v>
       </c>
       <c r="E410" t="s">
-        <v>82</v>
+        <v>463</v>
       </c>
       <c r="J410" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2042') = 0.0843072027405236;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2042') = 0.0843072027405236;</v>
       </c>
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
@@ -5758,11 +7415,11 @@
         <v>1.0538400810384979E-2</v>
       </c>
       <c r="E411" t="s">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="J411" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2042') = 0.010538400810385;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2042') = 0.010538400810385;</v>
       </c>
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
@@ -5770,11 +7427,11 @@
         <v>2.3430340428505999E-2</v>
       </c>
       <c r="E412" t="s">
-        <v>81</v>
+        <v>465</v>
       </c>
       <c r="J412" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2042') = 0.023430340428506;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2042') = 0.023430340428506;</v>
       </c>
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
@@ -5782,11 +7439,11 @@
         <v>7.4977089146902501E-2</v>
       </c>
       <c r="E413" t="s">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="J413" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2042') = 0.0749770891469025;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2042') = 0.0749770891469025;</v>
       </c>
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
@@ -5794,11 +7451,11 @@
         <v>1.40582042571036E-2</v>
       </c>
       <c r="E414" t="s">
-        <v>83</v>
+        <v>467</v>
       </c>
       <c r="J414" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2042') = 0.0140582042571036;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2042') = 0.0140582042571036;</v>
       </c>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.25">
@@ -5806,11 +7463,11 @@
         <v>3.1664905375288002E-2</v>
       </c>
       <c r="E415" t="s">
-        <v>81</v>
+        <v>468</v>
       </c>
       <c r="J415" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2042') = 0.031664905375288;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2042') = 0.031664905375288;</v>
       </c>
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
@@ -5818,11 +7475,11 @@
         <v>7.9162262310640427E-2</v>
       </c>
       <c r="E416" t="s">
-        <v>82</v>
+        <v>469</v>
       </c>
       <c r="J416" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2042') = 0.0791622623106404;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2042') = 0.0791622623106404;</v>
       </c>
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.25">
@@ -5830,11 +7487,11 @@
         <v>1.5832452687644001E-2</v>
       </c>
       <c r="E417" t="s">
-        <v>83</v>
+        <v>470</v>
       </c>
       <c r="J417" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2042') = 0.015832452687644;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2042') = 0.015832452687644;</v>
       </c>
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
@@ -5842,11 +7499,11 @@
         <v>3.2508094862685182E-2</v>
       </c>
       <c r="E418" t="s">
-        <v>81</v>
+        <v>471</v>
       </c>
       <c r="J418" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2042') = 0.0325080948626852;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2042') = 0.0325080948626852;</v>
       </c>
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
@@ -5854,11 +7511,11 @@
         <v>8.127023834325843E-2</v>
       </c>
       <c r="E419" t="s">
-        <v>82</v>
+        <v>472</v>
       </c>
       <c r="J419" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2042') = 0.0812702383432584;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2042') = 0.0812702383432584;</v>
       </c>
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
@@ -5866,11 +7523,11 @@
         <v>1.6254047431342591E-2</v>
       </c>
       <c r="E420" t="s">
-        <v>83</v>
+        <v>473</v>
       </c>
       <c r="J420" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2042') = 0.0162540474313426;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2042') = 0.0162540474313426;</v>
       </c>
     </row>
     <row r="421" spans="1:10" x14ac:dyDescent="0.25">
@@ -5914,11 +7571,11 @@
         <v>3.0943187687653209E-2</v>
       </c>
       <c r="E424" t="s">
-        <v>84</v>
+        <v>474</v>
       </c>
       <c r="J424" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2043') = 0.0309431876876532;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2043') = 0.0309431876876532;</v>
       </c>
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
@@ -5926,11 +7583,11 @@
         <v>8.2515166760074726E-2</v>
       </c>
       <c r="E425" t="s">
-        <v>85</v>
+        <v>475</v>
       </c>
       <c r="J425" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2043') = 0.0825151667600747;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2043') = 0.0825151667600747;</v>
       </c>
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
@@ -5938,11 +7595,11 @@
         <v>1.0314396302884891E-2</v>
       </c>
       <c r="E426" t="s">
-        <v>86</v>
+        <v>476</v>
       </c>
       <c r="J426" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2043') = 0.0103143963028849;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2043') = 0.0103143963028849;</v>
       </c>
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.25">
@@ -5950,11 +7607,11 @@
         <v>2.2875151532441209E-2</v>
       </c>
       <c r="E427" t="s">
-        <v>84</v>
+        <v>477</v>
       </c>
       <c r="J427" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2043') = 0.0228751515324412;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2043') = 0.0228751515324412;</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -5962,11 +7619,11 @@
         <v>7.3200484684810427E-2</v>
       </c>
       <c r="E428" t="s">
-        <v>85</v>
+        <v>478</v>
       </c>
       <c r="J428" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2043') = 0.0732004846848104;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2043') = 0.0732004846848104;</v>
       </c>
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
@@ -5974,11 +7631,11 @@
         <v>1.3725090919464731E-2</v>
       </c>
       <c r="E429" t="s">
-        <v>86</v>
+        <v>479</v>
       </c>
       <c r="J429" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2043') = 0.0137250909194647;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2043') = 0.0137250909194647;</v>
       </c>
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
@@ -5986,11 +7643,11 @@
         <v>3.0992809665628149E-2</v>
       </c>
       <c r="E430" t="s">
-        <v>84</v>
+        <v>480</v>
       </c>
       <c r="J430" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2043') = 0.0309928096656281;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2043') = 0.0309928096656281;</v>
       </c>
     </row>
     <row r="431" spans="1:10" x14ac:dyDescent="0.25">
@@ -5998,11 +7655,11 @@
         <v>7.7482023060423996E-2</v>
       </c>
       <c r="E431" t="s">
-        <v>85</v>
+        <v>481</v>
       </c>
       <c r="J431" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2043') = 0.077482023060424;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2043') = 0.077482023060424;</v>
       </c>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
@@ -6010,11 +7667,11 @@
         <v>1.549640483281408E-2</v>
       </c>
       <c r="E432" t="s">
-        <v>86</v>
+        <v>482</v>
       </c>
       <c r="J432" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2043') = 0.0154964048328141;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2043') = 0.0154964048328141;</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -6022,11 +7679,11 @@
         <v>3.1834604572437468E-2</v>
       </c>
       <c r="E433" t="s">
-        <v>84</v>
+        <v>483</v>
       </c>
       <c r="J433" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2043') = 0.0318346045724375;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2043') = 0.0318346045724375;</v>
       </c>
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
@@ -6034,11 +7691,11 @@
         <v>7.9586512593056769E-2</v>
       </c>
       <c r="E434" t="s">
-        <v>85</v>
+        <v>484</v>
       </c>
       <c r="J434" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2043') = 0.0795865125930568;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2043') = 0.0795865125930568;</v>
       </c>
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
@@ -6046,11 +7703,11 @@
         <v>1.5917302286218741E-2</v>
       </c>
       <c r="E435" t="s">
-        <v>86</v>
+        <v>485</v>
       </c>
       <c r="J435" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2043') = 0.0159173022862187;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2043') = 0.0159173022862187;</v>
       </c>
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
@@ -6094,11 +7751,11 @@
         <v>3.027228566720214E-2</v>
       </c>
       <c r="E439" t="s">
-        <v>87</v>
+        <v>486</v>
       </c>
       <c r="J439" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2044') = 0.0302722856672021;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2044') = 0.0302722856672021;</v>
       </c>
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
@@ -6106,11 +7763,11 @@
         <v>8.0726094714363039E-2</v>
       </c>
       <c r="E440" t="s">
-        <v>88</v>
+        <v>487</v>
       </c>
       <c r="J440" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2044') = 0.080726094714363;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2044') = 0.080726094714363;</v>
       </c>
     </row>
     <row r="441" spans="1:10" x14ac:dyDescent="0.25">
@@ -6118,11 +7775,11 @@
         <v>1.009076228724339E-2</v>
       </c>
       <c r="E441" t="s">
-        <v>89</v>
+        <v>488</v>
       </c>
       <c r="J441" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2044') = 0.0100907622872434;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2044') = 0.0100907622872434;</v>
       </c>
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
@@ -6130,11 +7787,11 @@
         <v>2.2320880890068149E-2</v>
       </c>
       <c r="E442" t="s">
-        <v>87</v>
+        <v>489</v>
       </c>
       <c r="J442" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2044') = 0.0223208808900681;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2044') = 0.0223208808900681;</v>
       </c>
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
@@ -6142,11 +7799,11 @@
         <v>7.1426818634523104E-2</v>
       </c>
       <c r="E443" t="s">
-        <v>88</v>
+        <v>490</v>
       </c>
       <c r="J443" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2044') = 0.0714268186345231;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2044') = 0.0714268186345231;</v>
       </c>
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
@@ -6154,11 +7811,11 @@
         <v>1.339252853404089E-2</v>
       </c>
       <c r="E444" t="s">
-        <v>89</v>
+        <v>491</v>
       </c>
       <c r="J444" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2044') = 0.0133925285340409;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2044') = 0.0133925285340409;</v>
       </c>
     </row>
     <row r="445" spans="1:10" x14ac:dyDescent="0.25">
@@ -6166,11 +7823,11 @@
         <v>3.0321825567477419E-2</v>
       </c>
       <c r="E445" t="s">
-        <v>87</v>
+        <v>492</v>
       </c>
       <c r="J445" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2044') = 0.0303218255674774;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2044') = 0.0303218255674774;</v>
       </c>
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
@@ -6178,11 +7835,11 @@
         <v>7.5804562838940756E-2</v>
       </c>
       <c r="E446" t="s">
-        <v>88</v>
+        <v>493</v>
       </c>
       <c r="J446" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2044') = 0.0758045628389408;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2044') = 0.0758045628389408;</v>
       </c>
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
@@ -6190,11 +7847,11 @@
         <v>1.516091278373871E-2</v>
       </c>
       <c r="E447" t="s">
-        <v>89</v>
+        <v>494</v>
       </c>
       <c r="J447" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2044') = 0.0151609127837387;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2044') = 0.0151609127837387;</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -6202,11 +7859,11 @@
         <v>3.116222820026297E-2</v>
       </c>
       <c r="E448" t="s">
-        <v>87</v>
+        <v>495</v>
       </c>
       <c r="J448" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2044') = 0.031162228200263;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2044') = 0.031162228200263;</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -6214,11 +7871,11 @@
         <v>7.7905571638078777E-2</v>
       </c>
       <c r="E449" t="s">
-        <v>88</v>
+        <v>496</v>
       </c>
       <c r="J449" t="str">
         <f t="shared" si="6"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2044') = 0.0779055716380788;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2044') = 0.0779055716380788;</v>
       </c>
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
@@ -6226,11 +7883,11 @@
         <v>1.558111410013149E-2</v>
       </c>
       <c r="E450" t="s">
-        <v>89</v>
+        <v>497</v>
       </c>
       <c r="J450" t="str">
         <f t="shared" ref="J450:J513" si="7">CONCATENATE(E450,A450,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B3','2044') = 0.0155811141001315;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2044') = 0.0155811141001315;</v>
       </c>
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
@@ -6274,11 +7931,11 @@
         <v>2.960249328396003E-2</v>
       </c>
       <c r="E454" t="s">
-        <v>90</v>
+        <v>498</v>
       </c>
       <c r="J454" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2045') = 0.02960249328396;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2045') = 0.02960249328396;</v>
       </c>
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
@@ -6286,11 +7943,11 @@
         <v>7.8939981701193956E-2</v>
       </c>
       <c r="E455" t="s">
-        <v>91</v>
+        <v>499</v>
       </c>
       <c r="J455" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2045') = 0.078939981701194;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2045') = 0.078939981701194;</v>
       </c>
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
@@ -6298,11 +7955,11 @@
         <v>9.867498150686136E-3</v>
       </c>
       <c r="E456" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="J456" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2045') = 0.00986749815068614;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2045') = 0.00986749815068614;</v>
       </c>
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
@@ -6310,11 +7967,11 @@
         <v>2.1767526982642761E-2</v>
       </c>
       <c r="E457" t="s">
-        <v>90</v>
+        <v>501</v>
       </c>
       <c r="J457" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2045') = 0.0217675269826428;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2045') = 0.0217675269826428;</v>
       </c>
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
@@ -6322,11 +7979,11 @@
         <v>6.9656086136059531E-2</v>
       </c>
       <c r="E458" t="s">
-        <v>91</v>
+        <v>502</v>
       </c>
       <c r="J458" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2045') = 0.0696560861360595;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2045') = 0.0696560861360595;</v>
       </c>
     </row>
     <row r="459" spans="1:10" x14ac:dyDescent="0.25">
@@ -6334,11 +7991,11 @@
         <v>1.3060516189585661E-2</v>
       </c>
       <c r="E459" t="s">
-        <v>92</v>
+        <v>503</v>
       </c>
       <c r="J459" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2045') = 0.0130605161895857;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2045') = 0.0130605161895857;</v>
       </c>
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
@@ -6346,11 +8003,11 @@
         <v>2.9651951242287911E-2</v>
       </c>
       <c r="E460" t="s">
-        <v>90</v>
+        <v>504</v>
       </c>
       <c r="J460" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2045') = 0.0296519512422879;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2045') = 0.0296519512422879;</v>
       </c>
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
@@ -6358,11 +8015,11 @@
         <v>7.4129877049821047E-2</v>
       </c>
       <c r="E461" t="s">
-        <v>91</v>
+        <v>505</v>
       </c>
       <c r="J461" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2045') = 0.074129877049821;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2045') = 0.074129877049821;</v>
       </c>
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
@@ -6370,11 +8027,11 @@
         <v>1.4825975621143961E-2</v>
       </c>
       <c r="E462" t="s">
-        <v>92</v>
+        <v>506</v>
       </c>
       <c r="J462" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2045') = 0.014825975621144;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2045') = 0.014825975621144;</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -6382,11 +8039,11 @@
         <v>3.0490963903798862E-2</v>
       </c>
       <c r="E463" t="s">
-        <v>90</v>
+        <v>507</v>
       </c>
       <c r="J463" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2045') = 0.0304909639037989;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2045') = 0.0304909639037989;</v>
       </c>
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
@@ -6394,11 +8051,11 @@
         <v>7.6227410872417342E-2</v>
       </c>
       <c r="E464" t="s">
-        <v>91</v>
+        <v>508</v>
       </c>
       <c r="J464" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2045') = 0.0762274108724173;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2045') = 0.0762274108724173;</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -6406,11 +8063,11 @@
         <v>1.5245481951899431E-2</v>
       </c>
       <c r="E465" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
       <c r="J465" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2045') = 0.0152454819518994;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2045') = 0.0152454819518994;</v>
       </c>
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
@@ -6454,11 +8111,11 @@
         <v>2.8933808702644389E-2</v>
       </c>
       <c r="E469" t="s">
-        <v>93</v>
+        <v>510</v>
       </c>
       <c r="J469" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2046') = 0.0289338087026444;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2046') = 0.0289338087026444;</v>
       </c>
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
@@ -6466,11 +8123,11 @@
         <v>7.7156822826480884E-2</v>
       </c>
       <c r="E470" t="s">
-        <v>94</v>
+        <v>511</v>
       </c>
       <c r="J470" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2046') = 0.0771568228264809;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2046') = 0.0771568228264809;</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -6478,11 +8135,11 @@
         <v>9.644603281452278E-3</v>
       </c>
       <c r="E471" t="s">
-        <v>95</v>
+        <v>512</v>
       </c>
       <c r="J471" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2046') = 0.00964460328145228;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2046') = 0.00964460328145228;</v>
       </c>
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
@@ -6490,11 +8147,11 @@
         <v>2.1215088293932909E-2</v>
       </c>
       <c r="E472" t="s">
-        <v>93</v>
+        <v>513</v>
       </c>
       <c r="J472" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2046') = 0.0212150882939329;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2046') = 0.0212150882939329;</v>
       </c>
     </row>
     <row r="473" spans="1:10" x14ac:dyDescent="0.25">
@@ -6502,11 +8159,11 @@
         <v>6.7888282337476916E-2</v>
       </c>
       <c r="E473" t="s">
-        <v>94</v>
+        <v>514</v>
       </c>
       <c r="J473" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2046') = 0.0678882823374769;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2046') = 0.0678882823374769;</v>
       </c>
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
@@ -6514,11 +8171,11 @@
         <v>1.2729052976359741E-2</v>
       </c>
       <c r="E474" t="s">
-        <v>95</v>
+        <v>515</v>
       </c>
       <c r="J474" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2046') = 0.0127290529763597;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2046') = 0.0127290529763597;</v>
       </c>
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
@@ -6526,11 +8183,11 @@
         <v>2.8983184854552601E-2</v>
       </c>
       <c r="E475" t="s">
-        <v>93</v>
+        <v>516</v>
       </c>
       <c r="J475" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2046') = 0.0289831848545526;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2046') = 0.0289831848545526;</v>
       </c>
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
@@ -6538,11 +8195,11 @@
         <v>7.2457961104297364E-2</v>
       </c>
       <c r="E476" t="s">
-        <v>94</v>
+        <v>517</v>
       </c>
       <c r="J476" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2046') = 0.0724579611042974;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2046') = 0.0724579611042974;</v>
       </c>
     </row>
     <row r="477" spans="1:10" x14ac:dyDescent="0.25">
@@ -6550,11 +8207,11 @@
         <v>1.44915924272763E-2</v>
       </c>
       <c r="E477" t="s">
-        <v>95</v>
+        <v>518</v>
       </c>
       <c r="J477" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2046') = 0.0144915924272763;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2046') = 0.0144915924272763;</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -6562,11 +8219,11 @@
         <v>2.9820809843729462E-2</v>
       </c>
       <c r="E478" t="s">
-        <v>93</v>
+        <v>519</v>
       </c>
       <c r="J478" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2046') = 0.0298208098437295;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2046') = 0.0298208098437295;</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -6574,11 +8231,11 @@
         <v>7.4552025697783228E-2</v>
       </c>
       <c r="E479" t="s">
-        <v>94</v>
+        <v>520</v>
       </c>
       <c r="J479" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2046') = 0.0745520256977832;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2046') = 0.0745520256977832;</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -6586,11 +8243,11 @@
         <v>1.4910404921864731E-2</v>
       </c>
       <c r="E480" t="s">
-        <v>95</v>
+        <v>521</v>
       </c>
       <c r="J480" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2046') = 0.0149104049218647;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2046') = 0.0149104049218647;</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -6634,11 +8291,11 @@
         <v>2.826623009100817E-2</v>
       </c>
       <c r="E484" t="s">
-        <v>96</v>
+        <v>522</v>
       </c>
       <c r="J484" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2047') = 0.0282662300910082;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2047') = 0.0282662300910082;</v>
       </c>
     </row>
     <row r="485" spans="1:10" x14ac:dyDescent="0.25">
@@ -6646,11 +8303,11 @@
         <v>7.5376613204231738E-2</v>
       </c>
       <c r="E485" t="s">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="J485" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2047') = 0.0753766132042317;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2047') = 0.0753766132042317;</v>
       </c>
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
@@ -6658,11 +8315,11 @@
         <v>9.4220770687927745E-3</v>
       </c>
       <c r="E486" t="s">
-        <v>98</v>
+        <v>524</v>
       </c>
       <c r="J486" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2047') = 0.00942207706879277;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2047') = 0.00942207706879277;</v>
       </c>
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
@@ -6670,11 +8327,11 @@
         <v>2.0663563310214191E-2</v>
       </c>
       <c r="E487" t="s">
-        <v>96</v>
+        <v>525</v>
       </c>
       <c r="J487" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2047') = 0.0206635633102142;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2047') = 0.0206635633102142;</v>
       </c>
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
@@ -6682,11 +8339,11 @@
         <v>6.6123402394857214E-2</v>
       </c>
       <c r="E488" t="s">
-        <v>97</v>
+        <v>526</v>
       </c>
       <c r="J488" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2047') = 0.0661234023948572;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2047') = 0.0661234023948572;</v>
       </c>
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
@@ -6694,11 +8351,11 @@
         <v>1.2398137986128519E-2</v>
       </c>
       <c r="E489" t="s">
-        <v>98</v>
+        <v>527</v>
       </c>
       <c r="J489" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2047') = 0.0123981379861285;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2047') = 0.0123981379861285;</v>
       </c>
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
@@ -6706,11 +8363,11 @@
         <v>2.8315524571800289E-2</v>
       </c>
       <c r="E490" t="s">
-        <v>96</v>
+        <v>528</v>
       </c>
       <c r="J490" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2047') = 0.0283155245718003;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2047') = 0.0283155245718003;</v>
       </c>
     </row>
     <row r="491" spans="1:10" x14ac:dyDescent="0.25">
@@ -6718,11 +8375,11 @@
         <v>7.0788810421191825E-2</v>
       </c>
       <c r="E491" t="s">
-        <v>97</v>
+        <v>529</v>
       </c>
       <c r="J491" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2047') = 0.0707888104211918;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2047') = 0.0707888104211918;</v>
       </c>
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
@@ -6730,11 +8387,11 @@
         <v>1.415776228590015E-2</v>
       </c>
       <c r="E492" t="s">
-        <v>98</v>
+        <v>530</v>
       </c>
       <c r="J492" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2047') = 0.0141577622859001;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2047') = 0.0141577622859001;</v>
       </c>
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
@@ -6742,11 +8399,11 @@
         <v>2.9151764183781279E-2</v>
       </c>
       <c r="E493" t="s">
-        <v>96</v>
+        <v>531</v>
       </c>
       <c r="J493" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2047') = 0.0291517641837813;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2047') = 0.0291517641837813;</v>
       </c>
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
@@ -6754,11 +8411,11 @@
         <v>7.2879411523492602E-2</v>
       </c>
       <c r="E494" t="s">
-        <v>97</v>
+        <v>532</v>
       </c>
       <c r="J494" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2047') = 0.0728794115234926;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2047') = 0.0728794115234926;</v>
       </c>
     </row>
     <row r="495" spans="1:10" x14ac:dyDescent="0.25">
@@ -6766,11 +8423,11 @@
         <v>1.4575882091890639E-2</v>
       </c>
       <c r="E495" t="s">
-        <v>98</v>
+        <v>533</v>
       </c>
       <c r="J495" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2047') = 0.0145758820918906;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2047') = 0.0145758820918906;</v>
       </c>
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
@@ -6814,11 +8471,11 @@
         <v>2.7599755619834781E-2</v>
       </c>
       <c r="E499" t="s">
-        <v>99</v>
+        <v>534</v>
       </c>
       <c r="J499" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2048') = 0.0275997556198348;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2048') = 0.0275997556198348;</v>
       </c>
     </row>
     <row r="500" spans="1:10" x14ac:dyDescent="0.25">
@@ -6826,11 +8483,11 @@
         <v>7.3599347956535596E-2</v>
       </c>
       <c r="E500" t="s">
-        <v>100</v>
+        <v>535</v>
       </c>
       <c r="J500" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2048') = 0.0735993479565356;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2048') = 0.0735993479565356;</v>
       </c>
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
@@ -6838,11 +8495,11 @@
         <v>9.1999189029687359E-3</v>
       </c>
       <c r="E501" t="s">
-        <v>101</v>
+        <v>536</v>
       </c>
       <c r="J501" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2048') = 0.00919991890296874;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2048') = 0.00919991890296874;</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -6850,11 +8507,11 @@
         <v>2.011295052026588E-2</v>
       </c>
       <c r="E502" t="s">
-        <v>99</v>
+        <v>537</v>
       </c>
       <c r="J502" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2048') = 0.0201129505202659;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2048') = 0.0201129505202659;</v>
       </c>
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,11 +8519,11 @@
         <v>6.4361441472294056E-2</v>
       </c>
       <c r="E503" t="s">
-        <v>100</v>
+        <v>538</v>
       </c>
       <c r="J503" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2048') = 0.0643614414722941;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2048') = 0.0643614414722941;</v>
       </c>
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
@@ -6874,11 +8531,11 @@
         <v>1.2067770312159529E-2</v>
       </c>
       <c r="E504" t="s">
-        <v>101</v>
+        <v>539</v>
       </c>
       <c r="J504" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2048') = 0.0120677703121595;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2048') = 0.0120677703121595;</v>
       </c>
     </row>
     <row r="505" spans="1:10" x14ac:dyDescent="0.25">
@@ -6886,11 +8543,11 @@
         <v>2.764896856459062E-2</v>
       </c>
       <c r="E505" t="s">
-        <v>99</v>
+        <v>540</v>
       </c>
       <c r="J505" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2048') = 0.0276489685645906;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2048') = 0.0276489685645906;</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -6898,11 +8555,11 @@
         <v>6.9122420426903516E-2</v>
       </c>
       <c r="E506" t="s">
-        <v>100</v>
+        <v>541</v>
       </c>
       <c r="J506" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2048') = 0.0691224204269035;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2048') = 0.0691224204269035;</v>
       </c>
     </row>
     <row r="507" spans="1:10" x14ac:dyDescent="0.25">
@@ -6910,11 +8567,11 @@
         <v>1.382448428229531E-2</v>
       </c>
       <c r="E507" t="s">
-        <v>101</v>
+        <v>542</v>
       </c>
       <c r="J507" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2048') = 0.0138244842822953;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2048') = 0.0138244842822953;</v>
       </c>
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
@@ -6922,11 +8579,11 @@
         <v>2.8483825090717872E-2</v>
       </c>
       <c r="E508" t="s">
-        <v>99</v>
+        <v>543</v>
       </c>
       <c r="J508" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2048') = 0.0284838250907179;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2048') = 0.0284838250907179;</v>
       </c>
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
@@ -6934,11 +8591,11 @@
         <v>7.120956376645432E-2</v>
       </c>
       <c r="E509" t="s">
-        <v>100</v>
+        <v>544</v>
       </c>
       <c r="J509" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2048') = 0.0712095637664543;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2048') = 0.0712095637664543;</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -6946,11 +8603,11 @@
         <v>1.4241912545358939E-2</v>
       </c>
       <c r="E510" t="s">
-        <v>101</v>
+        <v>545</v>
       </c>
       <c r="J510" t="str">
         <f t="shared" si="7"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2048') = 0.0142419125453589;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2048') = 0.0142419125453589;</v>
       </c>
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
@@ -6994,11 +8651,11 @@
         <v>2.6934383462933059E-2</v>
       </c>
       <c r="E514" t="s">
-        <v>102</v>
+        <v>546</v>
       </c>
       <c r="J514" t="str">
         <f t="shared" ref="J514:J577" si="8">CONCATENATE(E514,A514,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B1','2049') = 0.0269343834629331;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2049') = 0.0269343834629331;</v>
       </c>
     </row>
     <row r="515" spans="1:10" x14ac:dyDescent="0.25">
@@ -7006,11 +8663,11 @@
         <v>7.1825022213549403E-2</v>
       </c>
       <c r="E515" t="s">
-        <v>103</v>
+        <v>547</v>
       </c>
       <c r="J515" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2049') = 0.0718250222135494;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2049') = 0.0718250222135494;</v>
       </c>
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
@@ -7018,11 +8675,11 @@
         <v>8.9781281752497524E-3</v>
       </c>
       <c r="E516" t="s">
-        <v>104</v>
+        <v>548</v>
       </c>
       <c r="J516" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2049') = 0.00897812817524975;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2049') = 0.00897812817524975;</v>
       </c>
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
@@ -7030,11 +8687,11 @@
         <v>1.9563248415366691E-2</v>
       </c>
       <c r="E517" t="s">
-        <v>102</v>
+        <v>549</v>
       </c>
       <c r="J517" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2049') = 0.0195632484153667;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2049') = 0.0195632484153667;</v>
       </c>
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
@@ -7042,11 +8699,11 @@
         <v>6.2602394741879369E-2</v>
       </c>
       <c r="E518" t="s">
-        <v>103</v>
+        <v>550</v>
       </c>
       <c r="J518" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2049') = 0.0626023947418794;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2049') = 0.0626023947418794;</v>
       </c>
     </row>
     <row r="519" spans="1:10" x14ac:dyDescent="0.25">
@@ -7054,11 +8711,11 @@
         <v>1.1737949049220009E-2</v>
       </c>
       <c r="E519" t="s">
-        <v>104</v>
+        <v>551</v>
       </c>
       <c r="J519" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2049') = 0.01173794904922;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2049') = 0.01173794904922;</v>
       </c>
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
@@ -7066,11 +8723,11 @@
         <v>2.698351500650898E-2</v>
       </c>
       <c r="E520" t="s">
-        <v>102</v>
+        <v>552</v>
       </c>
       <c r="J520" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2049') = 0.026983515006509;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2049') = 0.026983515006509;</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -7078,11 +8735,11 @@
         <v>6.7458786555396083E-2</v>
       </c>
       <c r="E521" t="s">
-        <v>103</v>
+        <v>553</v>
       </c>
       <c r="J521" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2049') = 0.0674587865553961;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2049') = 0.0674587865553961;</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -7090,11 +8747,11 @@
         <v>1.349175750325449E-2</v>
       </c>
       <c r="E522" t="s">
-        <v>104</v>
+        <v>554</v>
       </c>
       <c r="J522" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2049') = 0.0134917575032545;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2049') = 0.0134917575032545;</v>
       </c>
     </row>
     <row r="523" spans="1:10" x14ac:dyDescent="0.25">
@@ -7102,11 +8759,11 @@
         <v>2.7816990734334919E-2</v>
       </c>
       <c r="E523" t="s">
-        <v>102</v>
+        <v>555</v>
       </c>
       <c r="J523" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2049') = 0.0278169907343349;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2049') = 0.0278169907343349;</v>
       </c>
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
@@ -7114,11 +8771,11 @@
         <v>6.9542477851157469E-2</v>
       </c>
       <c r="E524" t="s">
-        <v>103</v>
+        <v>556</v>
       </c>
       <c r="J524" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2049') = 0.0695424778511575;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2049') = 0.0695424778511575;</v>
       </c>
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
@@ -7126,11 +8783,11 @@
         <v>1.390849536716746E-2</v>
       </c>
       <c r="E525" t="s">
-        <v>104</v>
+        <v>557</v>
       </c>
       <c r="J525" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2049') = 0.0139084953671675;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2049') = 0.0139084953671675;</v>
       </c>
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
@@ -7174,11 +8831,11 @@
         <v>2.6270111797132241E-2</v>
       </c>
       <c r="E529" t="s">
-        <v>105</v>
+        <v>558</v>
       </c>
       <c r="J529" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2050') = 0.0262701117971322;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2050') = 0.0262701117971322;</v>
       </c>
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
@@ -7186,11 +8843,11 @@
         <v>7.0053631113484505E-2</v>
       </c>
       <c r="E530" t="s">
-        <v>106</v>
+        <v>559</v>
       </c>
       <c r="J530" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2050') = 0.0700536311134845;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2050') = 0.0700536311134845;</v>
       </c>
     </row>
     <row r="531" spans="1:10" x14ac:dyDescent="0.25">
@@ -7198,11 +8855,11 @@
         <v>8.7567042779122164E-3</v>
       </c>
       <c r="E531" t="s">
-        <v>107</v>
+        <v>560</v>
       </c>
       <c r="J531" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2050') = 0.00875670427791222;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2050') = 0.00875670427791222;</v>
       </c>
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
@@ -7210,11 +8867,11 @@
         <v>1.9014455489290701E-2</v>
       </c>
       <c r="E532" t="s">
-        <v>105</v>
+        <v>561</v>
       </c>
       <c r="J532" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2050') = 0.0190144554892907;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2050') = 0.0190144554892907;</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
@@ -7222,11 +8879,11 @@
         <v>6.0846257383690198E-2</v>
       </c>
       <c r="E533" t="s">
-        <v>106</v>
+        <v>562</v>
       </c>
       <c r="J533" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2050') = 0.0608462573836902;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2050') = 0.0608462573836902;</v>
       </c>
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
@@ -7234,11 +8891,11 @@
         <v>1.1408673293574419E-2</v>
       </c>
       <c r="E534" t="s">
-        <v>107</v>
+        <v>563</v>
       </c>
       <c r="J534" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2050') = 0.0114086732935744;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2050') = 0.0114086732935744;</v>
       </c>
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
@@ -7246,11 +8903,11 @@
         <v>2.6319162074161601E-2</v>
       </c>
       <c r="E535" t="s">
-        <v>105</v>
+        <v>564</v>
       </c>
       <c r="J535" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2050') = 0.0263191620741616;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2050') = 0.0263191620741616;</v>
       </c>
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
@@ -7258,11 +8915,11 @@
         <v>6.5797904248185074E-2</v>
       </c>
       <c r="E536" t="s">
-        <v>106</v>
+        <v>565</v>
       </c>
       <c r="J536" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2050') = 0.0657979042481851;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2050') = 0.0657979042481851;</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
@@ -7270,11 +8927,11 @@
         <v>1.31595810370808E-2</v>
       </c>
       <c r="E537" t="s">
-        <v>107</v>
+        <v>566</v>
       </c>
       <c r="J537" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2050') = 0.0131595810370808;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2050') = 0.0131595810370808;</v>
       </c>
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
@@ -7282,11 +8939,11 @@
         <v>2.7151259287455119E-2</v>
       </c>
       <c r="E538" t="s">
-        <v>105</v>
+        <v>567</v>
       </c>
       <c r="J538" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2050') = 0.0271512592874551;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2050') = 0.0271512592874551;</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -7294,11 +8951,11 @@
         <v>6.7878149209658775E-2</v>
       </c>
       <c r="E539" t="s">
-        <v>106</v>
+        <v>568</v>
       </c>
       <c r="J539" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2050') = 0.0678781492096588;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2050') = 0.0678781492096588;</v>
       </c>
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
@@ -7306,11 +8963,11 @@
         <v>1.357562964372756E-2</v>
       </c>
       <c r="E540" t="s">
-        <v>107</v>
+        <v>569</v>
       </c>
       <c r="J540" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2050') = 0.0135756296437276;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2050') = 0.0135756296437276;</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
@@ -7354,11 +9011,11 @@
         <v>2.5606938802277039E-2</v>
       </c>
       <c r="E544" t="s">
-        <v>108</v>
+        <v>570</v>
       </c>
       <c r="J544" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2051') = 0.025606938802277;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2051') = 0.025606938802277;</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
@@ -7366,11 +9023,11 @@
         <v>6.8285169802593457E-2</v>
       </c>
       <c r="E545" t="s">
-        <v>109</v>
+        <v>571</v>
       </c>
       <c r="J545" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2051') = 0.0682851698025935;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2051') = 0.0682851698025935;</v>
       </c>
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
@@ -7378,11 +9035,11 @@
         <v>8.535646604237666E-3</v>
       </c>
       <c r="E546" t="s">
-        <v>110</v>
+        <v>572</v>
       </c>
       <c r="J546" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2051') = 0.00853564660423767;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2051') = 0.00853564660423767;</v>
       </c>
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
@@ -7390,11 +9047,11 @@
         <v>1.8466570238303191E-2</v>
       </c>
       <c r="E547" t="s">
-        <v>108</v>
+        <v>573</v>
       </c>
       <c r="J547" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2051') = 0.0184665702383032;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2051') = 0.0184665702383032;</v>
       </c>
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
@@ -7402,11 +9059,11 @@
         <v>5.9093024585775512E-2</v>
       </c>
       <c r="E548" t="s">
-        <v>109</v>
+        <v>574</v>
       </c>
       <c r="J548" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2051') = 0.0590930245857755;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2051') = 0.0590930245857755;</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -7414,11 +9071,11 @@
         <v>1.107994214298192E-2</v>
       </c>
       <c r="E549" t="s">
-        <v>110</v>
+        <v>575</v>
       </c>
       <c r="J549" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2051') = 0.0110799421429819;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2051') = 0.0110799421429819;</v>
       </c>
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
@@ -7426,11 +9083,11 @@
         <v>2.5655907947170511E-2</v>
       </c>
       <c r="E550" t="s">
-        <v>108</v>
+        <v>576</v>
       </c>
       <c r="J550" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2051') = 0.0256559079471705;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2051') = 0.0256559079471705;</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
@@ -7438,11 +9095,11 @@
         <v>6.4139768954325646E-2</v>
       </c>
       <c r="E551" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="J551" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2051') = 0.0641397689543256;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2051') = 0.0641397689543256;</v>
       </c>
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
@@ -7450,11 +9107,11 @@
         <v>1.282795397358525E-2</v>
       </c>
       <c r="E552" t="s">
-        <v>110</v>
+        <v>578</v>
       </c>
       <c r="J552" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2051') = 0.0128279539735853;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2051') = 0.0128279539735853;</v>
       </c>
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
@@ -7462,11 +9119,11 @@
         <v>2.648662892592327E-2</v>
       </c>
       <c r="E553" t="s">
-        <v>108</v>
+        <v>579</v>
       </c>
       <c r="J553" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2051') = 0.0264866289259233;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2051') = 0.0264866289259233;</v>
       </c>
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
@@ -7474,11 +9131,11 @@
         <v>6.6216573281570143E-2</v>
       </c>
       <c r="E554" t="s">
-        <v>109</v>
+        <v>580</v>
       </c>
       <c r="J554" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2051') = 0.0662165732815701;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2051') = 0.0662165732815701;</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
@@ -7486,11 +9143,11 @@
         <v>1.324331446296164E-2</v>
       </c>
       <c r="E555" t="s">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="J555" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2051') = 0.0132433144629616;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2051') = 0.0132433144629616;</v>
       </c>
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
@@ -7534,11 +9191,11 @@
         <v>2.494486266122261E-2</v>
       </c>
       <c r="E559" t="s">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="J559" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2052') = 0.0249448626612226;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2052') = 0.0249448626612226;</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
@@ -7546,11 +9203,11 @@
         <v>6.6519633435156683E-2</v>
       </c>
       <c r="E560" t="s">
-        <v>112</v>
+        <v>583</v>
       </c>
       <c r="J560" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2052') = 0.0665196334351567;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2052') = 0.0665196334351567;</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
@@ -7558,11 +9215,11 @@
         <v>8.3149545485111335E-3</v>
       </c>
       <c r="E561" t="s">
-        <v>113</v>
+        <v>584</v>
       </c>
       <c r="J561" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2052') = 0.00831495454851113;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2052') = 0.00831495454851113;</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
@@ -7570,11 +9227,11 @@
         <v>1.791959116115659E-2</v>
       </c>
       <c r="E562" t="s">
-        <v>111</v>
+        <v>585</v>
       </c>
       <c r="J562" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2052') = 0.0179195911611566;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2052') = 0.0179195911611566;</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
@@ -7582,11 +9239,11 @@
         <v>5.7342691544143017E-2</v>
       </c>
       <c r="E563" t="s">
-        <v>112</v>
+        <v>586</v>
       </c>
       <c r="J563" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2052') = 0.057342691544143;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2052') = 0.057342691544143;</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
@@ -7594,11 +9251,11 @@
         <v>1.075175469669395E-2</v>
       </c>
       <c r="E564" t="s">
-        <v>113</v>
+        <v>587</v>
       </c>
       <c r="J564" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2052') = 0.0107517546966939;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2052') = 0.0107517546966939;</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
@@ -7606,11 +9263,11 @@
         <v>2.499375080816852E-2</v>
       </c>
       <c r="E565" t="s">
-        <v>111</v>
+        <v>588</v>
       </c>
       <c r="J565" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2052') = 0.0249937508081685;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2052') = 0.0249937508081685;</v>
       </c>
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
@@ -7618,11 +9275,11 @@
         <v>6.2484376130399942E-2</v>
       </c>
       <c r="E566" t="s">
-        <v>112</v>
+        <v>589</v>
       </c>
       <c r="J566" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2052') = 0.0624843761303999;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2052') = 0.0624843761303999;</v>
       </c>
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
@@ -7630,11 +9287,11 @@
         <v>1.249687540408426E-2</v>
       </c>
       <c r="E567" t="s">
-        <v>113</v>
+        <v>590</v>
       </c>
       <c r="J567" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2052') = 0.0124968754040843;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2052') = 0.0124968754040843;</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
@@ -7642,11 +9299,11 @@
         <v>2.5823097828601219E-2</v>
       </c>
       <c r="E568" t="s">
-        <v>111</v>
+        <v>591</v>
       </c>
       <c r="J568" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2052') = 0.0258230978286012;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2052') = 0.0258230978286012;</v>
       </c>
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
@@ -7654,11 +9311,11 @@
         <v>6.4557745514046139E-2</v>
       </c>
       <c r="E569" t="s">
-        <v>112</v>
+        <v>592</v>
       </c>
       <c r="J569" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2052') = 0.0645577455140461;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2052') = 0.0645577455140461;</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -7666,11 +9323,11 @@
         <v>1.2911548914300609E-2</v>
       </c>
       <c r="E570" t="s">
-        <v>113</v>
+        <v>593</v>
       </c>
       <c r="J570" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2052') = 0.0129115489143006;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2052') = 0.0129115489143006;</v>
       </c>
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
@@ -7714,11 +9371,11 @@
         <v>2.428388155982953E-2</v>
       </c>
       <c r="E574" t="s">
-        <v>114</v>
+        <v>594</v>
       </c>
       <c r="J574" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2053') = 0.0242838815598295;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2053') = 0.0242838815598295;</v>
       </c>
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
@@ -7726,11 +9383,11 @@
         <v>6.4757017173469128E-2</v>
       </c>
       <c r="E575" t="s">
-        <v>115</v>
+        <v>595</v>
       </c>
       <c r="J575" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2053') = 0.0647570171734691;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2053') = 0.0647570171734691;</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
@@ -7738,11 +9395,11 @@
         <v>8.0946275060194538E-3</v>
       </c>
       <c r="E576" t="s">
-        <v>116</v>
+        <v>596</v>
       </c>
       <c r="J576" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2053') = 0.00809462750601945;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2053') = 0.00809462750601945;</v>
       </c>
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
@@ -7750,11 +9407,11 @@
         <v>1.737351675908624E-2</v>
       </c>
       <c r="E577" t="s">
-        <v>114</v>
+        <v>597</v>
       </c>
       <c r="J577" t="str">
         <f t="shared" si="8"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2053') = 0.0173735167590862;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2053') = 0.0173735167590862;</v>
       </c>
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
@@ -7762,11 +9419,11 @@
         <v>5.5595253462745922E-2</v>
       </c>
       <c r="E578" t="s">
-        <v>115</v>
+        <v>598</v>
       </c>
       <c r="J578" t="str">
         <f t="shared" ref="J578:J641" si="9">CONCATENATE(E578,A578,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B2','2053') = 0.0555952534627459;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2053') = 0.0555952534627459;</v>
       </c>
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
@@ -7774,11 +9431,11 @@
         <v>1.0424110055451749E-2</v>
       </c>
       <c r="E579" t="s">
-        <v>116</v>
+        <v>599</v>
       </c>
       <c r="J579" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2053') = 0.0104241100554517;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2053') = 0.0104241100554517;</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
@@ -7786,11 +9443,11 @@
         <v>2.4332688842794301E-2</v>
       </c>
       <c r="E580" t="s">
-        <v>114</v>
+        <v>600</v>
       </c>
       <c r="J580" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2053') = 0.0243326888427943;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2053') = 0.0243326888427943;</v>
       </c>
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
@@ -7798,11 +9455,11 @@
         <v>6.0831721240504642E-2</v>
       </c>
       <c r="E581" t="s">
-        <v>115</v>
+        <v>601</v>
       </c>
       <c r="J581" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2053') = 0.0608317212405046;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2053') = 0.0608317212405046;</v>
       </c>
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
@@ -7810,11 +9467,11 @@
         <v>1.2166344421397151E-2</v>
       </c>
       <c r="E582" t="s">
-        <v>116</v>
+        <v>602</v>
       </c>
       <c r="J582" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2053') = 0.0121663444213972;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2053') = 0.0121663444213972;</v>
       </c>
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
@@ -7822,11 +9479,11 @@
         <v>2.516066417736287E-2</v>
       </c>
       <c r="E583" t="s">
-        <v>114</v>
+        <v>603</v>
       </c>
       <c r="J583" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2053') = 0.0251606641773629;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2053') = 0.0251606641773629;</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
@@ -7834,11 +9491,11 @@
         <v>6.290166136177143E-2</v>
       </c>
       <c r="E584" t="s">
-        <v>115</v>
+        <v>604</v>
       </c>
       <c r="J584" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2053') = 0.0629016613617714;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2053') = 0.0629016613617714;</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
@@ -7846,11 +9503,11 @@
         <v>1.258033208868143E-2</v>
       </c>
       <c r="E585" t="s">
-        <v>116</v>
+        <v>605</v>
       </c>
       <c r="J585" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2053') = 0.0125803320886814;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2053') = 0.0125803320886814;</v>
       </c>
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
@@ -7894,11 +9551,11 @@
         <v>2.3623993686958888E-2</v>
       </c>
       <c r="E589" t="s">
-        <v>117</v>
+        <v>606</v>
       </c>
       <c r="J589" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2054') = 0.0236239936869589;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2054') = 0.0236239936869589;</v>
       </c>
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
@@ -7906,11 +9563,11 @@
         <v>6.2997316187827029E-2</v>
       </c>
       <c r="E590" t="s">
-        <v>118</v>
+        <v>607</v>
       </c>
       <c r="J590" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2054') = 0.062997316187827;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2054') = 0.062997316187827;</v>
       </c>
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
@@ -7918,11 +9575,11 @@
         <v>7.874664873049636E-3</v>
       </c>
       <c r="E591" t="s">
-        <v>119</v>
+        <v>608</v>
       </c>
       <c r="J591" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2054') = 0.00787466487304964;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2054') = 0.00787466487304964;</v>
       </c>
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
@@ -7930,11 +9587,11 @@
         <v>1.6828345535806449E-2</v>
       </c>
       <c r="E592" t="s">
-        <v>117</v>
+        <v>609</v>
       </c>
       <c r="J592" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2054') = 0.0168283455358064;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2054') = 0.0168283455358064;</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
@@ -7942,11 +9599,11 @@
         <v>5.3850705553469908E-2</v>
       </c>
       <c r="E593" t="s">
-        <v>118</v>
+        <v>610</v>
       </c>
       <c r="J593" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2054') = 0.0538507055534699;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2054') = 0.0538507055534699;</v>
       </c>
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
@@ -7954,11 +9611,11 @@
         <v>1.0097007321483871E-2</v>
       </c>
       <c r="E594" t="s">
-        <v>119</v>
+        <v>611</v>
       </c>
       <c r="J594" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2054') = 0.0100970073214839;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2054') = 0.0100970073214839;</v>
       </c>
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
@@ -7966,11 +9623,11 @@
         <v>2.3672720239687361E-2</v>
       </c>
       <c r="E595" t="s">
-        <v>117</v>
+        <v>612</v>
       </c>
       <c r="J595" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2054') = 0.0236727202396874;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2054') = 0.0236727202396874;</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -7978,11 +9635,11 @@
         <v>5.9181799756238621E-2</v>
       </c>
       <c r="E596" t="s">
-        <v>118</v>
+        <v>613</v>
       </c>
       <c r="J596" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2054') = 0.0591817997562386;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2054') = 0.0591817997562386;</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
@@ -7990,11 +9647,11 @@
         <v>1.1836360119843681E-2</v>
       </c>
       <c r="E597" t="s">
-        <v>119</v>
+        <v>614</v>
       </c>
       <c r="J597" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2054') = 0.0118363601198437;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2054') = 0.0118363601198437;</v>
       </c>
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
@@ -8002,11 +9659,11 @@
         <v>2.4499326157089201E-2</v>
       </c>
       <c r="E598" t="s">
-        <v>117</v>
+        <v>615</v>
       </c>
       <c r="J598" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2054') = 0.0244993261570892;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2054') = 0.0244993261570892;</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
@@ -8014,11 +9671,11 @@
         <v>6.124831628694842E-2</v>
       </c>
       <c r="E599" t="s">
-        <v>118</v>
+        <v>616</v>
       </c>
       <c r="J599" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2054') = 0.0612483162869484;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2054') = 0.0612483162869484;</v>
       </c>
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
@@ -8026,11 +9683,11 @@
         <v>1.2249663078544601E-2</v>
       </c>
       <c r="E600" t="s">
-        <v>119</v>
+        <v>617</v>
       </c>
       <c r="J600" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2054') = 0.0122496630785446;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2054') = 0.0122496630785446;</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
@@ -8074,11 +9731,11 @@
         <v>2.296519723446732E-2</v>
       </c>
       <c r="E604" t="s">
-        <v>120</v>
+        <v>618</v>
       </c>
       <c r="J604" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2055') = 0.0229651972344673;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2055') = 0.0229651972344673;</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
@@ -8086,11 +9743,11 @@
         <v>6.1240525656514749E-2</v>
       </c>
       <c r="E605" t="s">
-        <v>121</v>
+        <v>619</v>
       </c>
       <c r="J605" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2055') = 0.0612405256565147;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2055') = 0.0612405256565147;</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
@@ -8098,11 +9755,11 @@
         <v>7.6550660468871932E-3</v>
       </c>
       <c r="E606" t="s">
-        <v>122</v>
+        <v>620</v>
       </c>
       <c r="J606" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2055') = 0.00765506604688719;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2055') = 0.00765506604688719;</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -8110,11 +9767,11 @@
         <v>1.6284075997506201E-2</v>
       </c>
       <c r="E607" t="s">
-        <v>120</v>
+        <v>621</v>
       </c>
       <c r="J607" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2055') = 0.0162840759975062;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2055') = 0.0162840759975062;</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
@@ -8122,11 +9779,11 @@
         <v>5.2109043036119837E-2</v>
       </c>
       <c r="E608" t="s">
-        <v>121</v>
+        <v>622</v>
       </c>
       <c r="J608" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2055') = 0.0521090430361198;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2055') = 0.0521090430361198;</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
@@ -8134,11 +9791,11 @@
         <v>9.7704455985037214E-3</v>
       </c>
       <c r="E609" t="s">
-        <v>122</v>
+        <v>623</v>
       </c>
       <c r="J609" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2055') = 0.00977044559850372;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2055') = 0.00977044559850372;</v>
       </c>
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
@@ -8146,11 +9803,11 @@
         <v>2.3013843190483101E-2</v>
       </c>
       <c r="E610" t="s">
-        <v>120</v>
+        <v>624</v>
       </c>
       <c r="J610" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2055') = 0.0230138431904831;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2055') = 0.0230138431904831;</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
@@ -8158,11 +9815,11 @@
         <v>5.7534607156690419E-2</v>
       </c>
       <c r="E611" t="s">
-        <v>121</v>
+        <v>625</v>
       </c>
       <c r="J611" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2055') = 0.0575346071566904;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2055') = 0.0575346071566904;</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
@@ -8170,11 +9827,11 @@
         <v>1.150692159524155E-2</v>
       </c>
       <c r="E612" t="s">
-        <v>122</v>
+        <v>626</v>
       </c>
       <c r="J612" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2055') = 0.0115069215952416;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2055') = 0.0115069215952416;</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -8182,11 +9839,11 @@
         <v>2.383908195566331E-2</v>
       </c>
       <c r="E613" t="s">
-        <v>120</v>
+        <v>627</v>
       </c>
       <c r="J613" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2055') = 0.0238390819556633;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2055') = 0.0238390819556633;</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
@@ -8194,11 +9851,11 @@
         <v>5.9597705759284782E-2</v>
       </c>
       <c r="E614" t="s">
-        <v>121</v>
+        <v>628</v>
       </c>
       <c r="J614" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2055') = 0.0595977057592848;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2055') = 0.0595977057592848;</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
@@ -8206,11 +9863,11 @@
         <v>1.191954097783166E-2</v>
       </c>
       <c r="E615" t="s">
-        <v>122</v>
+        <v>629</v>
       </c>
       <c r="J615" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2055') = 0.0119195409778317;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2055') = 0.0119195409778317;</v>
       </c>
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
@@ -8254,11 +9911,11 @@
         <v>2.2307490397201989E-2</v>
       </c>
       <c r="E619" t="s">
-        <v>123</v>
+        <v>630</v>
       </c>
       <c r="J619" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2056') = 0.022307490397202;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2056') = 0.022307490397202;</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
@@ -8266,11 +9923,11 @@
         <v>5.9486640765791472E-2</v>
       </c>
       <c r="E620" t="s">
-        <v>124</v>
+        <v>631</v>
       </c>
       <c r="J620" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2056') = 0.0594866407657915;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2056') = 0.0594866407657915;</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -8278,11 +9935,11 @@
         <v>7.4358304258144983E-3</v>
       </c>
       <c r="E621" t="s">
-        <v>125</v>
+        <v>632</v>
       </c>
       <c r="J621" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2056') = 0.0074358304258145;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2056') = 0.0074358304258145;</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
@@ -8290,11 +9947,11 @@
         <v>1.574070665284524E-2</v>
       </c>
       <c r="E622" t="s">
-        <v>123</v>
+        <v>633</v>
       </c>
       <c r="J622" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2056') = 0.0157407066528452;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2056') = 0.0157407066528452;</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
@@ -8302,11 +9959,11 @@
         <v>5.0370261138406848E-2</v>
       </c>
       <c r="E623" t="s">
-        <v>124</v>
+        <v>634</v>
       </c>
       <c r="J623" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2056') = 0.0503702611384068;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2056') = 0.0503702611384068;</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
@@ -8314,11 +9971,11 @@
         <v>9.4444239917071439E-3</v>
       </c>
       <c r="E624" t="s">
-        <v>125</v>
+        <v>635</v>
       </c>
       <c r="J624" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2056') = 0.00944442399170714;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2056') = 0.00944442399170714;</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
@@ -8326,11 +9983,11 @@
         <v>2.235605588980789E-2</v>
       </c>
       <c r="E625" t="s">
-        <v>123</v>
+        <v>636</v>
       </c>
       <c r="J625" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2056') = 0.0223560558898079;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2056') = 0.0223560558898079;</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
@@ -8338,11 +9995,11 @@
         <v>5.5890138928426029E-2</v>
       </c>
       <c r="E626" t="s">
-        <v>124</v>
+        <v>637</v>
       </c>
       <c r="J626" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2056') = 0.055890138928426;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2056') = 0.055890138928426;</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
@@ -8350,11 +10007,11 @@
         <v>1.117802794490395E-2</v>
       </c>
       <c r="E627" t="s">
-        <v>125</v>
+        <v>638</v>
       </c>
       <c r="J627" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2056') = 0.011178027944904;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2056') = 0.011178027944904;</v>
       </c>
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
@@ -8362,11 +10019,11 @@
         <v>2.3179929763965469E-2</v>
       </c>
       <c r="E628" t="s">
-        <v>123</v>
+        <v>639</v>
       </c>
       <c r="J628" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2056') = 0.0231799297639655;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2056') = 0.0231799297639655;</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
@@ -8374,11 +10031,11 @@
         <v>5.7949825255981129E-2</v>
       </c>
       <c r="E629" t="s">
-        <v>124</v>
+        <v>640</v>
       </c>
       <c r="J629" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2056') = 0.0579498252559811;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2056') = 0.0579498252559811;</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -8386,11 +10043,11 @@
         <v>1.158996488198274E-2</v>
       </c>
       <c r="E630" t="s">
-        <v>125</v>
+        <v>641</v>
       </c>
       <c r="J630" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2056') = 0.0115899648819827;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2056') = 0.0115899648819827;</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
@@ -8434,11 +10091,11 @@
         <v>2.1650871372995751E-2</v>
       </c>
       <c r="E634" t="s">
-        <v>126</v>
+        <v>642</v>
       </c>
       <c r="J634" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2057') = 0.0216508713729958;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2057') = 0.0216508713729958;</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -8446,11 +10103,11 @@
         <v>5.7735656709878097E-2</v>
       </c>
       <c r="E635" t="s">
-        <v>127</v>
+        <v>643</v>
       </c>
       <c r="J635" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2057') = 0.0577356567098781;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2057') = 0.0577356567098781;</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
@@ -8458,11 +10115,11 @@
         <v>7.2169574091091402E-3</v>
       </c>
       <c r="E636" t="s">
-        <v>128</v>
+        <v>644</v>
       </c>
       <c r="J636" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2057') = 0.00721695740910914;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2057') = 0.00721695740910914;</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
@@ -8470,11 +10127,11 @@
         <v>1.51982360129499E-2</v>
       </c>
       <c r="E637" t="s">
-        <v>126</v>
+        <v>645</v>
       </c>
       <c r="J637" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2057') = 0.0151982360129499;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2057') = 0.0151982360129499;</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -8482,11 +10139,11 @@
         <v>4.8634355095935257E-2</v>
       </c>
       <c r="E638" t="s">
-        <v>127</v>
+        <v>646</v>
       </c>
       <c r="J638" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2057') = 0.0486343550959353;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2057') = 0.0486343550959353;</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
@@ -8494,11 +10151,11 @@
         <v>9.1189416077699405E-3</v>
       </c>
       <c r="E639" t="s">
-        <v>128</v>
+        <v>647</v>
       </c>
       <c r="J639" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2057') = 0.00911894160776994;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2057') = 0.00911894160776994;</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
@@ -8506,11 +10163,11 @@
         <v>2.1699356535274088E-2</v>
       </c>
       <c r="E640" t="s">
-        <v>126</v>
+        <v>648</v>
       </c>
       <c r="J640" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2057') = 0.0216993565352741;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2057') = 0.0216993565352741;</v>
       </c>
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
@@ -8518,11 +10175,11 @@
         <v>5.424839056547643E-2</v>
       </c>
       <c r="E641" t="s">
-        <v>127</v>
+        <v>649</v>
       </c>
       <c r="J641" t="str">
         <f t="shared" si="9"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2057') = 0.0542483905654764;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2057') = 0.0542483905654764;</v>
       </c>
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
@@ -8530,11 +10187,11 @@
         <v>1.0849678267637041E-2</v>
       </c>
       <c r="E642" t="s">
-        <v>128</v>
+        <v>650</v>
       </c>
       <c r="J642" t="str">
         <f t="shared" ref="J642:J690" si="10">CONCATENATE(E642,A642,";")</f>
-        <v>CapacityFactor(r,'RIVER','S01B3','2057') = 0.010849678267637;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2057') = 0.010849678267637;</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
@@ -8542,11 +10199,11 @@
         <v>2.2521867775868131E-2</v>
       </c>
       <c r="E643" t="s">
-        <v>126</v>
+        <v>651</v>
       </c>
       <c r="J643" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2057') = 0.0225218677758681;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2057') = 0.0225218677758681;</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
@@ -8554,11 +10211,11 @@
         <v>5.6304670261718509E-2</v>
       </c>
       <c r="E644" t="s">
-        <v>127</v>
+        <v>652</v>
       </c>
       <c r="J644" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2057') = 0.0563046702617185;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2057') = 0.0563046702617185;</v>
       </c>
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
@@ -8566,11 +10223,11 @@
         <v>1.126093388793406E-2</v>
       </c>
       <c r="E645" t="s">
-        <v>128</v>
+        <v>653</v>
       </c>
       <c r="J645" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2057') = 0.0112609338879341;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2057') = 0.0112609338879341;</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
@@ -8614,11 +10271,11 @@
         <v>2.0995338362662121E-2</v>
       </c>
       <c r="E649" t="s">
-        <v>129</v>
+        <v>654</v>
       </c>
       <c r="J649" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2058') = 0.0209953383626621;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2058') = 0.0209953383626621;</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
@@ -8626,11 +10283,11 @@
         <v>5.5987568690944081E-2</v>
       </c>
       <c r="E650" t="s">
-        <v>130</v>
+        <v>655</v>
       </c>
       <c r="J650" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2058') = 0.0559875686909441;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2058') = 0.0559875686909441;</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
@@ -8638,11 +10295,11 @@
         <v>6.9984463970422734E-3</v>
       </c>
       <c r="E651" t="s">
-        <v>131</v>
+        <v>656</v>
       </c>
       <c r="J651" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2058') = 0.00699844639704227;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2058') = 0.00699844639704227;</v>
       </c>
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
@@ -8650,11 +10307,11 @@
         <v>1.4656662591409041E-2</v>
       </c>
       <c r="E652" t="s">
-        <v>129</v>
+        <v>657</v>
       </c>
       <c r="J652" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2058') = 0.014656662591409;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2058') = 0.014656662591409;</v>
       </c>
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
@@ -8662,11 +10319,11 @@
         <v>4.6901320152189389E-2</v>
       </c>
       <c r="E653" t="s">
-        <v>130</v>
+        <v>658</v>
       </c>
       <c r="J653" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2058') = 0.0469013201521894;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2058') = 0.0469013201521894;</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
@@ -8674,11 +10331,11 @@
         <v>8.7939975548454209E-3</v>
       </c>
       <c r="E654" t="s">
-        <v>131</v>
+        <v>659</v>
       </c>
       <c r="J654" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2058') = 0.00879399755484542;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2058') = 0.00879399755484542;</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
@@ -8686,11 +10343,11 @@
         <v>2.1043743327475099E-2</v>
       </c>
       <c r="E655" t="s">
-        <v>129</v>
+        <v>660</v>
       </c>
       <c r="J655" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2058') = 0.0210437433274751;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2058') = 0.0210437433274751;</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -8698,11 +10355,11 @@
         <v>5.2609357569325187E-2</v>
       </c>
       <c r="E656" t="s">
-        <v>130</v>
+        <v>661</v>
       </c>
       <c r="J656" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2058') = 0.0526093575693252;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2058') = 0.0526093575693252;</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
@@ -8710,11 +10367,11 @@
         <v>1.052187166373755E-2</v>
       </c>
       <c r="E657" t="s">
-        <v>131</v>
+        <v>662</v>
       </c>
       <c r="J657" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2058') = 0.0105218716637375;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2058') = 0.0105218716637375;</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
@@ -8722,11 +10379,11 @@
         <v>2.1864894188230961E-2</v>
       </c>
       <c r="E658" t="s">
-        <v>129</v>
+        <v>663</v>
       </c>
       <c r="J658" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2058') = 0.021864894188231;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2058') = 0.021864894188231;</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
@@ -8734,11 +10391,11 @@
         <v>5.466223626864606E-2</v>
       </c>
       <c r="E659" t="s">
-        <v>130</v>
+        <v>664</v>
       </c>
       <c r="J659" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2058') = 0.0546622362686461;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2058') = 0.0546622362686461;</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
@@ -8746,11 +10403,11 @@
         <v>1.0932447094115481E-2</v>
       </c>
       <c r="E660" t="s">
-        <v>131</v>
+        <v>665</v>
       </c>
       <c r="J660" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2058') = 0.0109324470941155;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2058') = 0.0109324470941155;</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -8794,11 +10451,11 @@
         <v>2.0340889569990368E-2</v>
       </c>
       <c r="E664" t="s">
-        <v>132</v>
+        <v>666</v>
       </c>
       <c r="J664" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2059') = 0.0203408895699904;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2059') = 0.0203408895699904;</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
@@ -8806,11 +10463,11 @@
         <v>5.4242371919094139E-2</v>
       </c>
       <c r="E665" t="s">
-        <v>133</v>
+        <v>667</v>
       </c>
       <c r="J665" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2059') = 0.0542423719190941;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2059') = 0.0542423719190941;</v>
       </c>
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
@@ -8818,11 +10475,11 @@
         <v>6.7802967908769567E-3</v>
       </c>
       <c r="E666" t="s">
-        <v>134</v>
+        <v>668</v>
       </c>
       <c r="J666" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2059') = 0.00678029679087696;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2059') = 0.00678029679087696;</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
@@ -8830,11 +10487,11 @@
         <v>1.4115984904269919E-2</v>
       </c>
       <c r="E667" t="s">
-        <v>132</v>
+        <v>669</v>
       </c>
       <c r="J667" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2059') = 0.0141159849042699;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2059') = 0.0141159849042699;</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
@@ -8842,11 +10499,11 @@
         <v>4.5171151558520549E-2</v>
       </c>
       <c r="E668" t="s">
-        <v>133</v>
+        <v>670</v>
       </c>
       <c r="J668" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2059') = 0.0451711515585205;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2059') = 0.0451711515585205;</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
@@ -8854,11 +10511,11 @@
         <v>8.4695909425619529E-3</v>
       </c>
       <c r="E669" t="s">
-        <v>134</v>
+        <v>671</v>
       </c>
       <c r="J669" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2059') = 0.00846959094256195;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2059') = 0.00846959094256195;</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -8866,11 +10523,11 @@
         <v>2.038921446998045E-2</v>
       </c>
       <c r="E670" t="s">
-        <v>132</v>
+        <v>672</v>
       </c>
       <c r="J670" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2059') = 0.0203892144699804;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2059') = 0.0203892144699804;</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -8878,11 +10535,11 @@
         <v>5.097303544889617E-2</v>
       </c>
       <c r="E671" t="s">
-        <v>133</v>
+        <v>673</v>
       </c>
       <c r="J671" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2059') = 0.0509730354488962;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2059') = 0.0509730354488962;</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
@@ -8890,11 +10547,11 @@
         <v>1.019460723499022E-2</v>
       </c>
       <c r="E672" t="s">
-        <v>134</v>
+        <v>674</v>
       </c>
       <c r="J672" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2059') = 0.0101946072349902;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2059') = 0.0101946072349902;</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
@@ -8902,11 +10559,11 @@
         <v>2.1209007200895968E-2</v>
       </c>
       <c r="E673" t="s">
-        <v>132</v>
+        <v>675</v>
       </c>
       <c r="J673" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2059') = 0.021209007200896;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2059') = 0.021209007200896;</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
@@ -8914,11 +10571,11 @@
         <v>5.3022518776368703E-2</v>
       </c>
       <c r="E674" t="s">
-        <v>133</v>
+        <v>676</v>
       </c>
       <c r="J674" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2059') = 0.0530225187763687;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2059') = 0.0530225187763687;</v>
       </c>
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
@@ -8926,11 +10583,11 @@
         <v>1.0604503600447981E-2</v>
       </c>
       <c r="E675" t="s">
-        <v>134</v>
+        <v>677</v>
       </c>
       <c r="J675" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2059') = 0.010604503600448;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2059') = 0.010604503600448;</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
@@ -8974,11 +10631,11 @@
         <v>1.9687523201740619E-2</v>
       </c>
       <c r="E679" t="s">
-        <v>135</v>
+        <v>678</v>
       </c>
       <c r="J679" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2060') = 0.0196875232017406;</v>
+        <v>CapacityFactor(r,'RIVER','S02B1','2060') = 0.0196875232017406;</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
@@ -8986,11 +10643,11 @@
         <v>5.2500061612355313E-2</v>
       </c>
       <c r="E680" t="s">
-        <v>136</v>
+        <v>679</v>
       </c>
       <c r="J680" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2060') = 0.0525000616123553;</v>
+        <v>CapacityFactor(r,'RIVER','S02B2','2060') = 0.0525000616123553;</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
@@ -8998,11 +10655,11 @@
         <v>6.5625079928665463E-3</v>
       </c>
       <c r="E681" t="s">
-        <v>137</v>
+        <v>680</v>
       </c>
       <c r="J681" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2060') = 0.00656250799286655;</v>
+        <v>CapacityFactor(r,'RIVER','S02B3','2060') = 0.00656250799286655;</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
@@ -9010,11 +10667,11 @@
         <v>1.3576201470034219E-2</v>
       </c>
       <c r="E682" t="s">
-        <v>135</v>
+        <v>681</v>
       </c>
       <c r="J682" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2060') = 0.0135762014700342;</v>
+        <v>CapacityFactor(r,'RIVER','S03B1','2060') = 0.0135762014700342;</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
@@ -9022,11 +10679,11 @@
         <v>4.3443844574134062E-2</v>
       </c>
       <c r="E683" t="s">
-        <v>136</v>
+        <v>682</v>
       </c>
       <c r="J683" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2060') = 0.0434438445741341;</v>
+        <v>CapacityFactor(r,'RIVER','S03B2','2060') = 0.0434438445741341;</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -9034,11 +10691,11 @@
         <v>8.1457208820205299E-3</v>
       </c>
       <c r="E684" t="s">
-        <v>137</v>
+        <v>683</v>
       </c>
       <c r="J684" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2060') = 0.00814572088202053;</v>
+        <v>CapacityFactor(r,'RIVER','S03B3','2060') = 0.00814572088202053;</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
@@ -9046,11 +10703,11 @@
         <v>1.9735768169330849E-2</v>
       </c>
       <c r="E685" t="s">
-        <v>135</v>
+        <v>684</v>
       </c>
       <c r="J685" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2060') = 0.0197357681693308;</v>
+        <v>CapacityFactor(r,'RIVER','S04B1','2060') = 0.0197357681693308;</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
@@ -9058,11 +10715,11 @@
         <v>4.9339419720541247E-2</v>
       </c>
       <c r="E686" t="s">
-        <v>136</v>
+        <v>685</v>
       </c>
       <c r="J686" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2060') = 0.0493394197205412;</v>
+        <v>CapacityFactor(r,'RIVER','S04B2','2060') = 0.0493394197205412;</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
@@ -9070,11 +10727,11 @@
         <v>9.8678840846654261E-3</v>
       </c>
       <c r="E687" t="s">
-        <v>137</v>
+        <v>686</v>
       </c>
       <c r="J687" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2060') = 0.00986788408466543;</v>
+        <v>CapacityFactor(r,'RIVER','S04B3','2060') = 0.00986788408466543;</v>
       </c>
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
@@ -9082,11 +10739,11 @@
         <v>2.0554205016682481E-2</v>
       </c>
       <c r="E688" t="s">
-        <v>135</v>
+        <v>687</v>
       </c>
       <c r="J688" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B1','2060') = 0.0205542050166825;</v>
+        <v>CapacityFactor(r,'RIVER','S05B1','2060') = 0.0205542050166825;</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
@@ -9094,11 +10751,11 @@
         <v>5.1385513291934692E-2</v>
       </c>
       <c r="E689" t="s">
-        <v>136</v>
+        <v>688</v>
       </c>
       <c r="J689" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B2','2060') = 0.0513855132919347;</v>
+        <v>CapacityFactor(r,'RIVER','S05B2','2060') = 0.0513855132919347;</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
@@ -9106,11 +10763,11 @@
         <v>1.027710250834124E-2</v>
       </c>
       <c r="E690" t="s">
-        <v>137</v>
+        <v>689</v>
       </c>
       <c r="J690" t="str">
         <f t="shared" si="10"/>
-        <v>CapacityFactor(r,'RIVER','S01B3','2060') = 0.0102771025083412;</v>
+        <v>CapacityFactor(r,'RIVER','S05B3','2060') = 0.0102771025083412;</v>
       </c>
     </row>
   </sheetData>
